--- a/targets/NHI_data_July2024.xlsx
+++ b/targets/NHI_data_July2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aayoungb/Documents/GitHub/LISM_map/targets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6760A56-5807-B94A-857E-63F8C5CA6CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0A2ACB-B157-AE4E-A40E-32A0D89CF267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="22960" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23240" yWindow="3160" windowWidth="45560" windowHeight="25400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NHI_data_March2024" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="238">
   <si>
     <t>Star Name</t>
   </si>
@@ -65,9 +65,6 @@
     <t>GJ 754</t>
   </si>
   <si>
-    <t>Zachary+2018</t>
-  </si>
-  <si>
     <t>GJ 780</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>HD 192310</t>
   </si>
   <si>
-    <t>Edelman+2020</t>
-  </si>
-  <si>
     <t>HD 9826</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>alpha Aql</t>
   </si>
   <si>
-    <t>RedfieldLinsky2004</t>
-  </si>
-  <si>
     <t>36 Oph A</t>
   </si>
   <si>
@@ -245,9 +236,6 @@
     <t>HD 28033</t>
   </si>
   <si>
-    <t>nu Peg</t>
-  </si>
-  <si>
     <t>iota Cap</t>
   </si>
   <si>
@@ -503,9 +491,6 @@
     <t>LTT 1445A</t>
   </si>
   <si>
-    <t>Diamond-Lowe 2024</t>
-  </si>
-  <si>
     <t>GJ 486</t>
   </si>
   <si>
@@ -533,9 +518,6 @@
     <t>TOI-776</t>
   </si>
   <si>
-    <t>TOI-420</t>
-  </si>
-  <si>
     <t>* pi.01 UMa</t>
   </si>
   <si>
@@ -557,15 +539,9 @@
     <t>* alf Leo</t>
   </si>
   <si>
-    <t>GryJenkins2017</t>
-  </si>
-  <si>
     <t>V* EK Dra</t>
   </si>
   <si>
-    <t>Namekata et al. in prep?</t>
-  </si>
-  <si>
     <t>K2-25</t>
   </si>
   <si>
@@ -587,27 +563,6 @@
     <t>HZ  9</t>
   </si>
   <si>
-    <t>AY fit as prep for David's PCEB Cycle 32 proposal (This work; average of 4 fits)</t>
-  </si>
-  <si>
-    <t>TW Hya</t>
-  </si>
-  <si>
-    <t>Herczeg2004</t>
-  </si>
-  <si>
-    <t>V4046 Sgr</t>
-  </si>
-  <si>
-    <t>Schindhelm2012</t>
-  </si>
-  <si>
-    <t>RECX 11</t>
-  </si>
-  <si>
-    <t>Ross  825</t>
-  </si>
-  <si>
     <t>Ross 1044</t>
   </si>
   <si>
@@ -617,33 +572,18 @@
     <t>Teegarden's Star</t>
   </si>
   <si>
-    <t>King et al. in prep</t>
-  </si>
-  <si>
     <t>DS Tuc A</t>
   </si>
   <si>
-    <t>dos Santos et al. in prep</t>
-  </si>
-  <si>
     <t>GJ 173</t>
   </si>
   <si>
-    <t>Redfield? In prep</t>
-  </si>
-  <si>
     <t>GJ 3323</t>
   </si>
   <si>
-    <t>HD  32147</t>
-  </si>
-  <si>
     <t>TOI-1231</t>
   </si>
   <si>
-    <t>TOI-1231b paper</t>
-  </si>
-  <si>
     <t>HAT-P-11</t>
   </si>
   <si>
@@ -683,24 +623,12 @@
     <t>HD 134439</t>
   </si>
   <si>
-    <t>Ross  451</t>
-  </si>
-  <si>
-    <t>HD  64090</t>
-  </si>
-  <si>
     <t>HD 184499</t>
   </si>
   <si>
     <t>HD 194598</t>
   </si>
   <si>
-    <t>HD  19445</t>
-  </si>
-  <si>
-    <t>HD   3167</t>
-  </si>
-  <si>
     <t>HIP 116454</t>
   </si>
   <si>
@@ -737,14 +665,95 @@
     <t>sigma Pup</t>
   </si>
   <si>
-    <t>Wood in prep</t>
+    <t>Zachary2018</t>
+  </si>
+  <si>
+    <t>Zachary2019</t>
+  </si>
+  <si>
+    <t>Zachary2020</t>
+  </si>
+  <si>
+    <t>Zachary2021</t>
+  </si>
+  <si>
+    <t>Edelman2020</t>
+  </si>
+  <si>
+    <t>STIS/E140H</t>
+  </si>
+  <si>
+    <t>STIS/E140M</t>
+  </si>
+  <si>
+    <t>GHRS/ECH-A</t>
+  </si>
+  <si>
+    <t>GHRS/G140M</t>
+  </si>
+  <si>
+    <t>STIS/G140M</t>
+  </si>
+  <si>
+    <t>GHRS/G160M</t>
+  </si>
+  <si>
+    <t>HD 3167</t>
+  </si>
+  <si>
+    <t>HD 19445</t>
+  </si>
+  <si>
+    <t>HD 32147</t>
+  </si>
+  <si>
+    <t>HD 64090</t>
+  </si>
+  <si>
+    <t>ups Peg</t>
+  </si>
+  <si>
+    <t>TOI-178</t>
+  </si>
+  <si>
+    <t>Ross 451</t>
+  </si>
+  <si>
+    <t>Ross 825</t>
+  </si>
+  <si>
+    <t>Woodinprep</t>
+  </si>
+  <si>
+    <t>Kinginprep</t>
+  </si>
+  <si>
+    <t>Redfieldinprep</t>
+  </si>
+  <si>
+    <t>Diamond-Lowe2024</t>
+  </si>
+  <si>
+    <t>Gry2017</t>
+  </si>
+  <si>
+    <t>TOI-1231b</t>
+  </si>
+  <si>
+    <t>Namekatainprep</t>
+  </si>
+  <si>
+    <t>This work</t>
+  </si>
+  <si>
+    <t>dosSantosinprep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -885,8 +894,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1068,7 +1084,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE2D5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,12 +1261,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1614,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P170"/>
+  <dimension ref="A1:P167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F166" sqref="F166:F170"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1653,2145 +1683,2367 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>5.9089396939999999</v>
-      </c>
-      <c r="D2">
-        <v>2.0530349999999999E-3</v>
+        <v>1.301970598</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8.4599999999999996E-5</v>
       </c>
       <c r="E2">
-        <v>18.270051779999999</v>
+        <v>17.61</v>
       </c>
       <c r="F2">
-        <v>7.7615460000000002E-3</v>
+        <v>0.2</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>216</v>
       </c>
       <c r="I2">
-        <v>290.19993460000001</v>
+        <v>217.4289421</v>
       </c>
       <c r="J2">
-        <v>-45.558234169999999</v>
+        <v>-62.679490000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>6.0992568670000002</v>
+        <v>1.3458950199999999</v>
       </c>
       <c r="D3">
-        <v>4.5459539999999996E-3</v>
+        <v>2.354863E-3</v>
       </c>
       <c r="E3">
-        <v>18.006682850000001</v>
+        <v>17.61</v>
       </c>
       <c r="F3">
-        <v>3.2530229999999999E-3</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>217</v>
       </c>
       <c r="I3">
-        <v>302.18170329999998</v>
+        <v>219.90205829999999</v>
       </c>
       <c r="J3">
-        <v>-66.182067219999993</v>
+        <v>-60.833992500000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>8.1596284430000008</v>
+        <v>1.3458950199999999</v>
       </c>
       <c r="D4">
-        <v>1.1718E-3</v>
+        <v>2.354863E-3</v>
       </c>
       <c r="E4">
-        <v>18.28</v>
+        <v>17.61</v>
       </c>
       <c r="F4">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>217</v>
       </c>
       <c r="I4">
-        <v>264.47227830000003</v>
+        <v>219.89609619999999</v>
       </c>
       <c r="J4">
-        <v>18.591712220000002</v>
+        <v>-60.8375275</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="C5">
-        <v>10.1169622</v>
+        <v>1.826648834</v>
       </c>
       <c r="D5">
-        <v>1.596706E-3</v>
+        <v>9.6729400000000005E-4</v>
       </c>
       <c r="E5">
-        <v>18.581534640000001</v>
+        <v>17.72</v>
       </c>
       <c r="F5">
-        <v>2.6209900000000001E-4</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>116</v>
+      </c>
+      <c r="H5" t="s">
+        <v>216</v>
       </c>
       <c r="I5">
-        <v>262.5947013</v>
+        <v>269.45208209999998</v>
       </c>
       <c r="J5">
-        <v>5.5485180559999998</v>
+        <v>4.6933641670000004</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="C6">
-        <v>8.8115664149999997</v>
+        <v>2.4085973439999999</v>
       </c>
       <c r="D6">
-        <v>4.0064150000000001E-3</v>
+        <v>3.9681200000000002E-4</v>
       </c>
       <c r="E6">
-        <v>18.235813709999999</v>
+        <v>18.2</v>
       </c>
       <c r="F6">
-        <v>2.1514321999999999E-2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" t="s">
+        <v>216</v>
       </c>
       <c r="I6">
-        <v>303.82246370000001</v>
+        <v>164.1205033</v>
       </c>
       <c r="J6">
-        <v>-27.032975279999999</v>
+        <v>7.0147230560000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="C7">
-        <v>13.478178829999999</v>
+        <v>2.5461301500000002</v>
       </c>
       <c r="D7">
-        <v>3.7840049000000001E-2</v>
+        <v>2.08097E-4</v>
       </c>
       <c r="E7">
-        <v>18.070462389999999</v>
+        <v>17.84</v>
       </c>
       <c r="F7">
-        <v>0.125862748</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>116</v>
+      </c>
+      <c r="H7" t="s">
+        <v>216</v>
       </c>
       <c r="I7">
-        <v>24.19933958</v>
+        <v>165.83414500000001</v>
       </c>
       <c r="J7">
-        <v>41.405458609999997</v>
+        <v>35.969882220000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>18.133023860000002</v>
+        <v>2.6370612590000002</v>
       </c>
       <c r="D8">
-        <v>1.1442468000000001E-2</v>
+        <v>1.0987466E-2</v>
       </c>
       <c r="E8">
-        <v>18.346519499999999</v>
+        <v>17.53</v>
       </c>
       <c r="F8">
-        <v>0.122209912</v>
+        <v>0.2</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>220</v>
       </c>
       <c r="I8">
-        <v>326.1305413</v>
+        <v>101.287155</v>
       </c>
       <c r="J8">
-        <v>14.771939720000001</v>
+        <v>-16.71611583</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="C9">
-        <v>3.6384395309999999</v>
+        <v>2.9759548800000002</v>
       </c>
       <c r="D9">
-        <v>1.265576E-3</v>
+        <v>2.80745E-4</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>17.72</v>
       </c>
       <c r="F9">
-        <v>0.1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
+        <v>0.03</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" t="s">
+        <v>216</v>
       </c>
       <c r="I9">
-        <v>330.84022329999999</v>
+        <v>282.45568209999999</v>
       </c>
       <c r="J9">
-        <v>-56.785978329999999</v>
+        <v>-23.83623528</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="C10">
-        <v>8.5344184559999992</v>
+        <v>3.155014043</v>
       </c>
       <c r="D10">
-        <v>1.0604964999999999E-2</v>
+        <v>1.2542180000000001E-3</v>
       </c>
       <c r="E10">
-        <v>17.91</v>
+        <v>18.07</v>
       </c>
       <c r="F10">
-        <v>0.2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" t="s">
+        <v>216</v>
       </c>
       <c r="I10">
-        <v>199.60130789999999</v>
+        <v>355.4793171</v>
       </c>
       <c r="J10">
-        <v>-18.31119361</v>
+        <v>44.177451390000002</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>15.89754351</v>
+        <v>3.2160545439999999</v>
       </c>
       <c r="D11">
-        <v>2.0395463999999999E-2</v>
+        <v>1.654881E-3</v>
       </c>
       <c r="E11">
-        <v>18.25</v>
+        <v>17.88</v>
       </c>
       <c r="F11">
         <v>0.2</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>217</v>
       </c>
       <c r="I11">
-        <v>238.1689208</v>
+        <v>53.232687079999998</v>
       </c>
       <c r="J11">
-        <v>42.451517219999999</v>
+        <v>-9.4582586109999998</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="C12">
-        <v>18.945206670000001</v>
+        <v>3.2880092219999999</v>
       </c>
       <c r="D12">
-        <v>4.9172160000000003E-3</v>
+        <v>2.1622000000000001E-4</v>
       </c>
       <c r="E12">
-        <v>17.95</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F12">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>143</v>
+      </c>
+      <c r="H12" t="s">
+        <v>216</v>
       </c>
       <c r="I12">
-        <v>349.86099380000002</v>
+        <v>346.46681539999997</v>
       </c>
       <c r="J12">
-        <v>79.003520280000004</v>
+        <v>-35.85307083</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="C13">
-        <v>22.69719894</v>
+        <v>3.40599455</v>
       </c>
       <c r="D13">
-        <v>1.1951778E-2</v>
+        <v>1.0440718999999999E-2</v>
       </c>
       <c r="E13">
-        <v>17.82</v>
+        <v>18.05</v>
       </c>
       <c r="F13">
-        <v>0.2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" t="s">
+        <v>216</v>
       </c>
       <c r="I13">
-        <v>168.13479290000001</v>
+        <v>339.63990000000001</v>
       </c>
       <c r="J13">
-        <v>35.814079999999997</v>
+        <v>-15.299932500000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>25.924466469999999</v>
+        <v>3.4965658479999999</v>
       </c>
       <c r="D14">
-        <v>7.9237990999999994E-2</v>
+        <v>7.3233599999999999E-4</v>
       </c>
       <c r="E14">
-        <v>18.45</v>
+        <v>18.13</v>
       </c>
       <c r="F14">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>217</v>
       </c>
       <c r="I14">
-        <v>354.39101119999998</v>
+        <v>316.72474790000001</v>
       </c>
       <c r="J14">
-        <v>46.458151110000003</v>
+        <v>38.749417219999998</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C15">
-        <v>35.919540230000003</v>
+        <v>3.514197357</v>
       </c>
       <c r="D15">
-        <v>0.49028107500000001</v>
+        <v>1.5560475000000001E-2</v>
       </c>
       <c r="E15">
-        <v>18.47</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="F15">
         <v>0.2</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>220</v>
       </c>
       <c r="I15">
-        <v>161.6924113</v>
+        <v>114.8254979</v>
       </c>
       <c r="J15">
-        <v>-49.420256670000001</v>
+        <v>5.2249875000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C16">
-        <v>1.301970598</v>
-      </c>
-      <c r="D16" s="1">
-        <v>8.4599999999999996E-5</v>
+        <v>3.5624359650000001</v>
+      </c>
+      <c r="D16">
+        <v>2.57626E-4</v>
       </c>
       <c r="E16">
-        <v>17.61</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.2</v>
+        <v>18.059999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.02</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>29</v>
+        <v>126</v>
+      </c>
+      <c r="H16" t="s">
+        <v>216</v>
       </c>
       <c r="I16">
-        <v>217.4289421</v>
+        <v>4.5953537500000001</v>
       </c>
       <c r="J16">
-        <v>-62.679490000000001</v>
+        <v>44.022954720000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>1.3458950199999999</v>
+        <v>3.6384395309999999</v>
       </c>
       <c r="D17">
-        <v>2.354863E-3</v>
+        <v>1.265576E-3</v>
       </c>
       <c r="E17">
-        <v>17.61</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>0.1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>217</v>
       </c>
       <c r="I17">
-        <v>219.90205829999999</v>
+        <v>330.84022329999999</v>
       </c>
       <c r="J17">
-        <v>-60.833992500000001</v>
+        <v>-56.785978329999999</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C18">
-        <v>1.3458950199999999</v>
+        <v>3.652171563</v>
       </c>
       <c r="D18">
-        <v>2.354863E-3</v>
+        <v>2.2688550000000002E-3</v>
       </c>
       <c r="E18">
-        <v>17.61</v>
-      </c>
-      <c r="F18" s="3">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="F18">
         <v>0.2</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>31</v>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>216</v>
       </c>
       <c r="I18">
-        <v>219.89609619999999</v>
+        <v>26.017012919999999</v>
       </c>
       <c r="J18">
-        <v>-60.8375275</v>
+        <v>-15.937479720000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="C19">
-        <v>2.6370612590000002</v>
+        <v>3.7860588979999998</v>
       </c>
       <c r="D19">
-        <v>1.0987466E-2</v>
+        <v>5.9200400000000003E-4</v>
       </c>
       <c r="E19">
-        <v>17.53</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>34</v>
+        <v>18.12</v>
+      </c>
+      <c r="F19">
+        <v>0.02</v>
+      </c>
+      <c r="G19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" t="s">
+        <v>216</v>
       </c>
       <c r="I19">
-        <v>101.287155</v>
+        <v>111.85207870000001</v>
       </c>
       <c r="J19">
-        <v>-16.71611583</v>
+        <v>5.2257891670000003</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="C20">
-        <v>3.2160545439999999</v>
+        <v>3.8315879169999998</v>
       </c>
       <c r="D20">
-        <v>1.654881E-3</v>
+        <v>1.3712119999999999E-3</v>
       </c>
       <c r="E20">
-        <v>17.88</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.2</v>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.15</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>36</v>
+        <v>230</v>
+      </c>
+      <c r="H20" t="s">
+        <v>219</v>
       </c>
       <c r="I20">
-        <v>53.232687079999998</v>
+        <v>43.253715419999999</v>
       </c>
       <c r="J20">
-        <v>-9.4582586109999998</v>
+        <v>16.881286670000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="C21">
-        <v>3.4965658479999999</v>
+        <v>3.933931973</v>
       </c>
       <c r="D21">
-        <v>7.3233599999999999E-4</v>
+        <v>2.5999399999999999E-4</v>
       </c>
       <c r="E21">
-        <v>18.13</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>38</v>
+        <v>17.98</v>
+      </c>
+      <c r="F21">
+        <v>0.34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" t="s">
+        <v>216</v>
       </c>
       <c r="I21">
-        <v>316.72474790000001</v>
+        <v>77.919124170000003</v>
       </c>
       <c r="J21">
-        <v>38.749417219999998</v>
+        <v>-45.018433610000002</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="C22">
-        <v>3.514197357</v>
+        <v>4.0097420689999996</v>
       </c>
       <c r="D22">
-        <v>1.5560475000000001E-2</v>
+        <v>2.6576989999999999E-3</v>
       </c>
       <c r="E22">
-        <v>18.059999999999999</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>40</v>
+        <v>17.78</v>
+      </c>
+      <c r="F22">
+        <v>0.02</v>
+      </c>
+      <c r="G22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" t="s">
+        <v>216</v>
       </c>
       <c r="I22">
-        <v>114.8254979</v>
+        <v>336.99815619999998</v>
       </c>
       <c r="J22">
-        <v>5.2249875000000001</v>
+        <v>57.695022219999998</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="C23">
-        <v>5.0098192460000002</v>
+        <v>4.5527741649999998</v>
       </c>
       <c r="D23">
-        <v>3.031873E-3</v>
+        <v>5.4306700000000005E-4</v>
       </c>
       <c r="E23">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.1</v>
+        <v>17.96</v>
+      </c>
+      <c r="F23">
+        <v>0.01</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>38</v>
+        <v>126</v>
+      </c>
+      <c r="H23" t="s">
+        <v>219</v>
       </c>
       <c r="I23">
-        <v>63.817998410000001</v>
+        <v>262.16643959999999</v>
       </c>
       <c r="J23">
-        <v>-7.6528696610000004</v>
+        <v>-46.895191109999999</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>75</v>
+      </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C24">
-        <v>10.358400659999999</v>
+        <v>4.672067577</v>
       </c>
       <c r="D24">
-        <v>2.8970046999999999E-2</v>
+        <v>7.7708400000000004E-4</v>
       </c>
       <c r="E24">
-        <v>18.260000000000002</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>36</v>
+        <v>18.03</v>
+      </c>
+      <c r="F24">
+        <v>0.04</v>
+      </c>
+      <c r="G24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" t="s">
+        <v>219</v>
       </c>
       <c r="I24">
-        <v>116.3289575</v>
+        <v>343.31971870000001</v>
       </c>
       <c r="J24">
-        <v>28.02619889</v>
+        <v>-14.26369556</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="C25">
-        <v>5.1133266590000002</v>
+        <v>4.904663158</v>
       </c>
       <c r="D25">
-        <v>5.1350959999999996E-3</v>
+        <v>7.9865000000000003E-4</v>
       </c>
       <c r="E25">
-        <v>18.059999999999999</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>21</v>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F25">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H25" t="s">
+        <v>216</v>
       </c>
       <c r="I25">
-        <v>271.36353500000001</v>
+        <v>166.3690704</v>
       </c>
       <c r="J25">
-        <v>2.5001461109999998</v>
+        <v>43.526773890000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>236</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="C26">
-        <v>68.526005620000007</v>
+        <v>4.9059938000000001</v>
       </c>
       <c r="D26">
-        <v>0.17703217199999999</v>
+        <v>1.2034389999999999E-3</v>
       </c>
       <c r="E26">
-        <v>17.95</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>45</v>
+        <v>17.86</v>
+      </c>
+      <c r="F26">
+        <v>0.05</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26" t="s">
+        <v>216</v>
       </c>
       <c r="I26">
-        <v>194.2596767</v>
+        <v>166.3786896</v>
       </c>
       <c r="J26">
-        <v>22.031287219999999</v>
+        <v>43.521634720000002</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C27">
-        <v>5.1295203899999997</v>
+        <v>4.9650855189999996</v>
       </c>
       <c r="D27">
-        <v>1.4997828E-2</v>
+        <v>7.2970100000000003E-4</v>
       </c>
       <c r="E27">
-        <v>18.295963010000001</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.35592698900000003</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>47</v>
+        <v>18.47</v>
+      </c>
+      <c r="F27">
+        <v>0.2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>216</v>
       </c>
       <c r="I27">
-        <v>297.69582709999997</v>
+        <v>154.90117000000001</v>
       </c>
       <c r="J27">
-        <v>8.8683211110000002</v>
+        <v>19.87000278</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C28">
-        <v>5.9522711189999997</v>
+        <v>4.9670880740000003</v>
       </c>
       <c r="D28">
-        <v>4.7581860000000002E-3</v>
+        <v>5.8472600000000004E-4</v>
       </c>
       <c r="E28">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>49</v>
+        <v>18.2</v>
+      </c>
+      <c r="F28">
+        <v>0.03</v>
+      </c>
+      <c r="G28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" t="s">
+        <v>219</v>
       </c>
       <c r="I28">
-        <v>258.83659829999999</v>
+        <v>323.3915629</v>
       </c>
       <c r="J28">
-        <v>-26.60169917</v>
+        <v>-49.008999719999998</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C29">
-        <v>6.7535853100000001</v>
+        <v>5.0098192460000002</v>
       </c>
       <c r="D29">
-        <v>6.0069570000000003E-3</v>
+        <v>3.031873E-3</v>
       </c>
       <c r="E29">
-        <v>17.920000000000002</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>21</v>
+        <v>17.850000000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s">
+        <v>217</v>
       </c>
       <c r="I29">
-        <v>222.84745169999999</v>
+        <v>63.817998410000001</v>
       </c>
       <c r="J29">
-        <v>19.10044972</v>
+        <v>-7.6528696610000004</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C30">
-        <v>8.6632591179999991</v>
+        <v>5.0515944599999996</v>
       </c>
       <c r="D30">
-        <v>2.0264056999999999E-2</v>
+        <v>5.6140900000000002E-4</v>
       </c>
       <c r="E30">
-        <v>17.93</v>
-      </c>
-      <c r="F30" s="3">
+        <v>17.97</v>
+      </c>
+      <c r="F30">
         <v>0.2</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>21</v>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>216</v>
       </c>
       <c r="I30">
-        <v>88.59576208</v>
+        <v>341.70721329999998</v>
       </c>
       <c r="J30">
-        <v>20.27617278</v>
+        <v>44.333992780000003</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C31">
-        <v>9.2762399319999993</v>
+        <v>5.1133266590000002</v>
       </c>
       <c r="D31">
-        <v>1.5815737E-2</v>
+        <v>5.1350959999999996E-3</v>
       </c>
       <c r="E31">
-        <v>17.89</v>
-      </c>
-      <c r="F31" s="3">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="F31">
         <v>0.2</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>21</v>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>216</v>
       </c>
       <c r="I31">
-        <v>49.840401669999999</v>
+        <v>271.36353500000001</v>
       </c>
       <c r="J31">
-        <v>3.3701983329999998</v>
+        <v>2.5001461109999998</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C32">
-        <v>9.7140947630000003</v>
+        <v>5.1295203899999997</v>
       </c>
       <c r="D32">
-        <v>2.1798E-3</v>
+        <v>1.4997828E-2</v>
       </c>
       <c r="E32">
-        <v>18.36</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>21</v>
+        <v>18.295963010000001</v>
+      </c>
+      <c r="F32">
+        <v>0.35592698900000003</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s">
+        <v>218</v>
       </c>
       <c r="I32">
-        <v>311.2897183</v>
+        <v>297.69582709999997</v>
       </c>
       <c r="J32">
-        <v>-31.34089917</v>
+        <v>8.8683211110000002</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="C33">
-        <v>11.69272</v>
+        <v>5.3749974470000002</v>
       </c>
       <c r="D33">
-        <v>1.0322336999999999E-2</v>
+        <v>8.0026999999999995E-4</v>
       </c>
       <c r="E33">
-        <v>18.29</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.2</v>
+        <v>17.72</v>
+      </c>
+      <c r="F33">
+        <v>0.02</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>21</v>
+        <v>231</v>
+      </c>
+      <c r="H33" t="s">
+        <v>216</v>
       </c>
       <c r="I33">
-        <v>76.377731670000003</v>
+        <v>75.489275419999998</v>
       </c>
       <c r="J33">
-        <v>-57.472704440000001</v>
+        <v>-6.9462155560000003</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="C34">
-        <v>13.123359580000001</v>
+        <v>5.6885086439999997</v>
       </c>
       <c r="D34">
-        <v>7.9222381999999994E-2</v>
+        <v>1.5144069999999999E-3</v>
       </c>
       <c r="E34">
-        <v>18.239999999999998</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>0.4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" t="s">
+        <v>219</v>
       </c>
       <c r="I34">
-        <v>79.172327920000001</v>
+        <v>278.90783370000003</v>
       </c>
       <c r="J34">
-        <v>45.997991390000003</v>
+        <v>32.998143329999998</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="C35">
-        <v>16.784155760000001</v>
+        <v>5.7040803000000002</v>
       </c>
       <c r="D35">
-        <v>0.10704899499999999</v>
+        <v>6.6374499999999998E-4</v>
       </c>
       <c r="E35">
-        <v>18.13</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>21</v>
+        <v>17.760000000000002</v>
+      </c>
+      <c r="F35">
+        <v>0.02</v>
+      </c>
+      <c r="G35" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" t="s">
+        <v>216</v>
       </c>
       <c r="I35">
-        <v>2.2945212499999998</v>
+        <v>82.864148749999998</v>
       </c>
       <c r="J35">
-        <v>59.149781109999999</v>
+        <v>-3.6772288889999998</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C36">
-        <v>19.481404999999999</v>
+        <v>5.9089396939999999</v>
       </c>
       <c r="D36">
-        <v>0.21112982999999999</v>
+        <v>2.0530349999999999E-3</v>
       </c>
       <c r="E36">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>36</v>
+        <v>18.270051779999999</v>
+      </c>
+      <c r="F36">
+        <v>7.7615460000000002E-3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" t="s">
+        <v>216</v>
       </c>
       <c r="I36">
-        <v>28.27043917</v>
+        <v>290.19993460000001</v>
       </c>
       <c r="J36">
-        <v>29.578818609999999</v>
+        <v>-45.558234169999999</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="C37">
-        <v>20.433183490000001</v>
+        <v>5.9172823110000001</v>
       </c>
       <c r="D37">
-        <v>0.32148653199999999</v>
+        <v>9.4538399999999996E-4</v>
       </c>
       <c r="E37">
-        <v>18.29</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>229</v>
+        <v>18.12</v>
+      </c>
+      <c r="F37">
+        <v>0.01</v>
+      </c>
+      <c r="G37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" t="s">
+        <v>216</v>
       </c>
       <c r="I37">
-        <v>68.980162500000006</v>
+        <v>233.0538846</v>
       </c>
       <c r="J37">
-        <v>16.509302219999999</v>
+        <v>-41.275591669999997</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C38">
-        <v>29.43054832</v>
+        <v>5.9522711189999997</v>
       </c>
       <c r="D38">
-        <v>3.0228884000000001E-2</v>
+        <v>4.7581860000000002E-3</v>
       </c>
       <c r="E38">
-        <v>18.13</v>
-      </c>
-      <c r="F38" s="3">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="F38">
         <v>0.2</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>60</v>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>215</v>
       </c>
       <c r="I38">
-        <v>54.19704333</v>
+        <v>258.83659829999999</v>
       </c>
       <c r="J38">
-        <v>0.58776194400000004</v>
+        <v>-26.60169917</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="C39">
-        <v>29.533372709999998</v>
+        <v>5.9888523500000002</v>
       </c>
       <c r="D39">
-        <v>0.13955521300000001</v>
+        <v>1.2302159999999999E-3</v>
       </c>
       <c r="E39">
-        <v>18.36</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>60</v>
+        <v>18.02</v>
+      </c>
+      <c r="F39">
+        <v>0.02</v>
+      </c>
+      <c r="G39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" t="s">
+        <v>216</v>
       </c>
       <c r="I39">
-        <v>10.89737875</v>
+        <v>116.16738460000001</v>
       </c>
       <c r="J39">
-        <v>-17.98660611</v>
+        <v>3.5524652780000001</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="C40">
-        <v>31.867431490000001</v>
+        <v>6.0122457420000002</v>
       </c>
       <c r="D40">
-        <v>0.24372795999999999</v>
+        <v>3.8496659999999999E-3</v>
       </c>
       <c r="E40">
-        <v>17.923319509999999</v>
-      </c>
-      <c r="F40" s="3">
-        <v>3.9294374999999999E-2</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>47</v>
+        <v>18.28</v>
+      </c>
+      <c r="F40">
+        <v>0.02</v>
+      </c>
+      <c r="G40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" t="s">
+        <v>216</v>
       </c>
       <c r="I40">
-        <v>206.88515709999999</v>
+        <v>302.7997446</v>
       </c>
       <c r="J40">
-        <v>49.313266669999997</v>
+        <v>-36.10120861</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C41">
-        <v>59.679758419999999</v>
+        <v>6.0414126760000002</v>
       </c>
       <c r="D41">
-        <v>0.26213918000000003</v>
+        <v>2.8614959999999998E-3</v>
       </c>
       <c r="E41">
-        <v>17.93</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>64</v>
+        <v>18.329999999999998</v>
+      </c>
+      <c r="F41">
+        <v>0.03</v>
+      </c>
+      <c r="G41" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" t="s">
+        <v>216</v>
       </c>
       <c r="I41">
-        <v>199.0910538</v>
+        <v>49.98187875</v>
       </c>
       <c r="J41">
-        <v>29.098725829999999</v>
+        <v>-43.069781939999999</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>32.097988739999998</v>
+        <v>6.0992568670000002</v>
       </c>
       <c r="D42">
-        <v>0.12445793400000001</v>
+        <v>4.5459539999999996E-3</v>
       </c>
       <c r="E42">
-        <v>18.05</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>21</v>
+        <v>18.006682850000001</v>
+      </c>
+      <c r="F42">
+        <v>3.2530229999999999E-3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>211</v>
+      </c>
+      <c r="H42" t="s">
+        <v>215</v>
       </c>
       <c r="I42">
-        <v>143.6202475</v>
+        <v>302.18170329999998</v>
       </c>
       <c r="J42">
-        <v>69.830340559999996</v>
+        <v>-66.182067219999993</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="C43">
-        <v>36.871796760000002</v>
+        <v>6.1954030109999998</v>
       </c>
       <c r="D43">
-        <v>0.41683171899999999</v>
+        <v>0.216480219</v>
       </c>
       <c r="E43">
-        <v>18.2</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>36</v>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F43">
+        <v>0.01</v>
+      </c>
+      <c r="G43" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" t="s">
+        <v>215</v>
       </c>
       <c r="I43">
-        <v>115.8280317</v>
+        <v>253.8698229</v>
       </c>
       <c r="J43">
-        <v>28.88350861</v>
+        <v>-8.3363297220000003</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C44">
-        <v>44.53787501</v>
+        <v>6.3004707079999998</v>
       </c>
       <c r="D44">
-        <v>5.0384006000000002E-2</v>
+        <v>1.194847E-3</v>
       </c>
       <c r="E44">
-        <v>18.12</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>21</v>
+        <v>18.010000000000002</v>
+      </c>
+      <c r="F44">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G44" t="s">
+        <v>98</v>
+      </c>
+      <c r="H44" t="s">
+        <v>219</v>
       </c>
       <c r="I44">
-        <v>67.694991669999993</v>
+        <v>229.8617787</v>
       </c>
       <c r="J44">
-        <v>16.14868083</v>
+        <v>-7.7222747219999999</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="C45">
-        <v>46.98364969</v>
+        <v>6.3336075789999997</v>
       </c>
       <c r="D45">
-        <v>4.9447177000000002E-2</v>
+        <v>7.9025700000000005E-4</v>
       </c>
       <c r="E45">
-        <v>18.11</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>21</v>
+        <v>17.97</v>
+      </c>
+      <c r="F45">
+        <v>0.01</v>
+      </c>
+      <c r="G45" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" t="s">
+        <v>216</v>
       </c>
       <c r="I45">
-        <v>66.899546670000007</v>
+        <v>138.59489529999999</v>
       </c>
       <c r="J45">
-        <v>15.58919167</v>
+        <v>52.686608749999998</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C46">
-        <v>47.56898692</v>
+        <v>6.7535853100000001</v>
       </c>
       <c r="D46">
-        <v>0.11721348400000001</v>
+        <v>6.0069570000000003E-3</v>
       </c>
       <c r="E46">
-        <v>18.149999999999999</v>
-      </c>
-      <c r="F46" s="3">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="F46">
         <v>0.2</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>21</v>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" t="s">
+        <v>216</v>
       </c>
       <c r="I46">
-        <v>66.577075829999998</v>
+        <v>222.84745169999999</v>
       </c>
       <c r="J46">
-        <v>21.47043</v>
+        <v>19.10044972</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="C47">
-        <v>80.399424339999996</v>
+        <v>6.8637854330000003</v>
       </c>
       <c r="D47">
-        <v>1.0620462450000001</v>
+        <v>1.149522E-3</v>
       </c>
       <c r="E47">
-        <v>18.239999999999998</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>21</v>
+        <v>17.8</v>
+      </c>
+      <c r="F47">
+        <v>0.1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" t="s">
+        <v>219</v>
       </c>
       <c r="I47">
-        <v>331.4197954</v>
+        <v>45.46414</v>
       </c>
       <c r="J47">
-        <v>5.0585300000000002</v>
+        <v>-16.593341939999998</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C48">
-        <v>61.710110579999998</v>
+        <v>7.2428970719999999</v>
       </c>
       <c r="D48">
-        <v>0.64281363800000002</v>
+        <v>1.4846060000000001E-3</v>
       </c>
       <c r="E48">
-        <v>18.7</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>21</v>
+        <v>17.98</v>
+      </c>
+      <c r="F48">
+        <v>0.15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" t="s">
+        <v>219</v>
       </c>
       <c r="I48">
-        <v>320.56164960000001</v>
+        <v>259.74511330000001</v>
       </c>
       <c r="J48">
-        <v>-16.834543889999999</v>
+        <v>-34.99683667</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="C49">
-        <v>52.494264999999999</v>
+        <v>8.0791367600000008</v>
       </c>
       <c r="D49">
-        <v>0.15459184400000001</v>
+        <v>2.147464E-3</v>
       </c>
       <c r="E49">
-        <v>18.18</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>73</v>
+        <v>17.8</v>
+      </c>
+      <c r="F49">
+        <v>0.1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>232</v>
+      </c>
+      <c r="H49" t="s">
+        <v>219</v>
       </c>
       <c r="I49">
-        <v>76.377574999999993</v>
+        <v>191.98593539999999</v>
       </c>
       <c r="J49">
-        <v>52.831088610000002</v>
+        <v>9.7513986110000008</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C50">
-        <v>84.411692709999997</v>
+        <v>8.1596284430000008</v>
       </c>
       <c r="D50">
-        <v>0.70754563199999998</v>
+        <v>1.1718E-3</v>
       </c>
       <c r="E50">
-        <v>17.88</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>36</v>
+        <v>18.28</v>
+      </c>
+      <c r="F50">
+        <v>0.02</v>
+      </c>
+      <c r="G50" t="s">
+        <v>212</v>
+      </c>
+      <c r="H50" t="s">
+        <v>216</v>
       </c>
       <c r="I50">
-        <v>192.92466709999999</v>
+        <v>264.47227830000003</v>
       </c>
       <c r="J50">
-        <v>27.540712500000001</v>
+        <v>18.591712220000002</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C51">
-        <v>10.36054704</v>
+        <v>8.5344184559999992</v>
       </c>
       <c r="D51">
-        <v>2.7693959999999999E-3</v>
+        <v>1.0604964999999999E-2</v>
       </c>
       <c r="E51">
-        <v>18.05</v>
-      </c>
-      <c r="F51" s="3">
+        <v>17.91</v>
+      </c>
+      <c r="F51">
         <v>0.2</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>24</v>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s">
+        <v>216</v>
       </c>
       <c r="I51">
-        <v>43.133867080000002</v>
+        <v>199.60130789999999</v>
       </c>
       <c r="J51">
-        <v>-12.76971333</v>
+        <v>-18.31119361</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
         <v>48</v>
       </c>
-      <c r="B52" t="s">
-        <v>76</v>
-      </c>
       <c r="C52">
-        <v>18.073671900000001</v>
+        <v>8.6632591179999991</v>
       </c>
       <c r="D52">
-        <v>6.7291470000000004E-3</v>
+        <v>2.0264056999999999E-2</v>
       </c>
       <c r="E52">
-        <v>17.7</v>
-      </c>
-      <c r="F52" s="3">
+        <v>17.93</v>
+      </c>
+      <c r="F52">
         <v>0.2</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>24</v>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
+        <v>216</v>
       </c>
       <c r="I52">
-        <v>143.18233079999999</v>
+        <v>88.59576208</v>
       </c>
       <c r="J52">
-        <v>26.988529440000001</v>
+        <v>20.27617278</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>18.269445080000001</v>
+        <v>8.8115664149999997</v>
       </c>
       <c r="D53">
-        <v>8.1440520000000006E-3</v>
+        <v>4.0064150000000001E-3</v>
       </c>
       <c r="E53">
-        <v>19.05</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>24</v>
+        <v>18.235813709999999</v>
+      </c>
+      <c r="F53">
+        <v>2.1514321999999999E-2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>214</v>
+      </c>
+      <c r="H53" t="s">
+        <v>216</v>
       </c>
       <c r="I53">
-        <v>143.1065346</v>
+        <v>303.82246370000001</v>
       </c>
       <c r="J53">
-        <v>-11.18463667</v>
+        <v>-27.032975279999999</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C54">
-        <v>28.27046923</v>
+        <v>8.8148675080000007</v>
       </c>
       <c r="D54">
-        <v>1.5584779E-2</v>
+        <v>2.3310570000000001E-3</v>
       </c>
       <c r="E54">
-        <v>18.350000000000001</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0.2</v>
+        <v>17.829999999999998</v>
+      </c>
+      <c r="F54">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>24</v>
+        <v>126</v>
+      </c>
+      <c r="H54" t="s">
+        <v>219</v>
       </c>
       <c r="I54">
-        <v>4.5870395830000001</v>
+        <v>332.41810120000002</v>
       </c>
       <c r="J54">
-        <v>30.95614694</v>
+        <v>-4.6407361109999998</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="C55">
-        <v>51.024833790000002</v>
+        <v>8.8439615640000007</v>
       </c>
       <c r="D55">
-        <v>1.495730153</v>
+        <v>1.736388E-3</v>
       </c>
       <c r="E55">
-        <v>18.3</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>24</v>
+        <v>17.84</v>
+      </c>
+      <c r="F55">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G55" t="s">
+        <v>231</v>
+      </c>
+      <c r="H55" t="s">
+        <v>216</v>
       </c>
       <c r="I55">
-        <v>311.93752330000001</v>
+        <v>75.204163750000006</v>
       </c>
       <c r="J55">
-        <v>-36.59465806</v>
+        <v>-5.7536733330000001</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C56">
-        <v>77.713965979999998</v>
+        <v>9.088810402</v>
       </c>
       <c r="D56">
-        <v>0.21923241500000001</v>
+        <v>1.6058698E-2</v>
       </c>
       <c r="E56">
-        <v>18.47</v>
-      </c>
-      <c r="F56" s="3">
+        <v>17.88</v>
+      </c>
+      <c r="F56">
         <v>0.2</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>81</v>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s">
+        <v>216</v>
       </c>
       <c r="I56">
-        <v>38.78164125</v>
+        <v>55.812085420000003</v>
       </c>
       <c r="J56">
-        <v>3.732448889</v>
+        <v>-9.7633916670000005</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C57">
-        <v>75.1738395</v>
+        <v>9.2762399319999993</v>
       </c>
       <c r="D57">
-        <v>0.27238331700000001</v>
+        <v>1.5815737E-2</v>
       </c>
       <c r="E57">
-        <v>19.11</v>
-      </c>
-      <c r="F57" s="3">
+        <v>17.89</v>
+      </c>
+      <c r="F57">
         <v>0.2</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>83</v>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
+        <v>216</v>
       </c>
       <c r="I57">
-        <v>348.09006579999999</v>
+        <v>49.840401669999999</v>
       </c>
       <c r="J57">
-        <v>10.78451583</v>
+        <v>3.3701983329999998</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="C58">
-        <v>3.652171563</v>
+        <v>9.4186170269999998</v>
       </c>
       <c r="D58">
-        <v>2.2688550000000002E-3</v>
+        <v>1.2508160000000001E-3</v>
       </c>
       <c r="E58">
-        <v>18.010000000000002</v>
+        <v>17.78</v>
       </c>
       <c r="F58">
-        <v>0.2</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
+        <v>0.09</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" t="s">
+        <v>219</v>
       </c>
       <c r="I58">
-        <v>26.017012919999999</v>
+        <v>146.12431960000001</v>
       </c>
       <c r="J58">
-        <v>-15.937479720000001</v>
+        <v>-45.776507500000001</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="C59">
-        <v>4.9650855189999996</v>
+        <v>9.4358405310000002</v>
       </c>
       <c r="D59">
-        <v>7.2970100000000003E-4</v>
+        <v>2.0210969999999999E-3</v>
       </c>
       <c r="E59">
-        <v>18.47</v>
+        <v>18.66</v>
       </c>
       <c r="F59">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>191</v>
+      </c>
+      <c r="H59" t="s">
+        <v>219</v>
       </c>
       <c r="I59">
-        <v>154.90117000000001</v>
+        <v>144.00682169999999</v>
       </c>
       <c r="J59">
-        <v>19.87000278</v>
+        <v>-21.660799170000001</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C60">
-        <v>5.0515944599999996</v>
+        <v>9.4851912449999993</v>
       </c>
       <c r="D60">
-        <v>5.6140900000000002E-4</v>
+        <v>1.8893460000000001E-3</v>
       </c>
       <c r="E60">
-        <v>17.97</v>
+        <v>17.46</v>
       </c>
       <c r="F60">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="G60" t="s">
-        <v>21</v>
+        <v>98</v>
+      </c>
+      <c r="H60" t="s">
+        <v>219</v>
       </c>
       <c r="I60">
-        <v>341.70721329999998</v>
+        <v>70.732395830000002</v>
       </c>
       <c r="J60">
-        <v>44.333992780000003</v>
+        <v>18.958165279999999</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="C61">
-        <v>9.088810402</v>
+        <v>9.7140947630000003</v>
       </c>
       <c r="D61">
-        <v>1.6058698E-2</v>
+        <v>2.1798E-3</v>
       </c>
       <c r="E61">
-        <v>17.88</v>
+        <v>18.36</v>
       </c>
       <c r="F61">
         <v>0.2</v>
       </c>
       <c r="G61" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="H61" t="s">
+        <v>216</v>
       </c>
       <c r="I61">
-        <v>55.812085420000003</v>
+        <v>311.2897183</v>
       </c>
       <c r="J61">
-        <v>-9.7633916670000005</v>
+        <v>-31.34089917</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C62">
-        <v>12.270134369999999</v>
+        <v>9.7750372920000004</v>
       </c>
       <c r="D62">
-        <v>3.8090720000000002E-3</v>
+        <v>2.8856509999999999E-3</v>
       </c>
       <c r="E62">
-        <v>18.260000000000002</v>
+        <v>18.04</v>
       </c>
       <c r="F62">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="G62" t="s">
-        <v>21</v>
+        <v>98</v>
+      </c>
+      <c r="H62" t="s">
+        <v>219</v>
       </c>
       <c r="I62">
-        <v>85.334731669999996</v>
+        <v>175.54622209999999</v>
       </c>
       <c r="J62">
-        <v>53.48105778</v>
+        <v>26.706569439999999</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C63">
-        <v>13.76615975</v>
+        <v>10.1169622</v>
       </c>
       <c r="D63">
-        <v>5.5336090000000001E-3</v>
+        <v>1.596706E-3</v>
       </c>
       <c r="E63">
-        <v>18.29</v>
+        <v>18.581534640000001</v>
       </c>
       <c r="F63">
-        <v>0.2</v>
+        <v>2.6209900000000001E-4</v>
       </c>
       <c r="G63" t="s">
-        <v>21</v>
+        <v>213</v>
+      </c>
+      <c r="H63" t="s">
+        <v>216</v>
       </c>
       <c r="I63">
-        <v>1.653266667</v>
+        <v>262.5947013</v>
       </c>
       <c r="J63">
-        <v>29.021503330000002</v>
+        <v>5.5485180559999998</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>60</v>
-      </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C64">
-        <v>16.698672460000001</v>
+        <v>10.358400659999999</v>
       </c>
       <c r="D64">
-        <v>5.3538370000000002E-3</v>
+        <v>2.8970046999999999E-2</v>
       </c>
       <c r="E64">
-        <v>17.87</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="F64">
         <v>0.2</v>
       </c>
       <c r="G64" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="H64" t="s">
+        <v>217</v>
       </c>
       <c r="I64">
-        <v>93.438730419999999</v>
+        <v>116.3289575</v>
       </c>
       <c r="J64">
-        <v>-23.86193639</v>
+        <v>28.02619889</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C65">
-        <v>17.114613139999999</v>
+        <v>10.36054704</v>
       </c>
       <c r="D65">
-        <v>1.1833563E-2</v>
+        <v>2.7693959999999999E-3</v>
       </c>
       <c r="E65">
-        <v>18.13</v>
+        <v>18.05</v>
       </c>
       <c r="F65">
         <v>0.2</v>
       </c>
       <c r="G65" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>220</v>
       </c>
       <c r="I65">
-        <v>271.59883129999997</v>
+        <v>43.133867080000002</v>
       </c>
       <c r="J65">
-        <v>-36.019786109999998</v>
+        <v>-12.76971333</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C66">
-        <v>20.806241870000001</v>
+        <v>10.39141337</v>
       </c>
       <c r="D66">
-        <v>0.14805170100000001</v>
+        <v>2.6347480000000001E-3</v>
       </c>
       <c r="E66">
-        <v>18.82</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="F66">
-        <v>0.2</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
+        <v>0.02</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H66" t="s">
+        <v>219</v>
       </c>
       <c r="I66">
-        <v>321.16884169999997</v>
+        <v>254.5368733</v>
       </c>
       <c r="J66">
-        <v>-68.227924169999994</v>
+        <v>25.744159440000001</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="C67">
-        <v>21.751519340000002</v>
+        <v>10.44951734</v>
       </c>
       <c r="D67">
-        <v>8.1378119999999995E-3</v>
+        <v>1.58329E-3</v>
       </c>
       <c r="E67">
-        <v>18.54</v>
+        <v>18.37</v>
       </c>
       <c r="F67">
-        <v>0.2</v>
-      </c>
-      <c r="G67" t="s">
-        <v>21</v>
+        <v>0.06</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H67" t="s">
+        <v>219</v>
       </c>
       <c r="I67">
-        <v>112.67713209999999</v>
+        <v>140.40667289999999</v>
       </c>
       <c r="J67">
-        <v>-37.339362780000002</v>
+        <v>-60.281952779999997</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="C68">
-        <v>21.649192159999998</v>
+        <v>11.214433420000001</v>
       </c>
       <c r="D68">
-        <v>6.3741500000000003E-3</v>
+        <v>3.9363979999999998E-3</v>
       </c>
       <c r="E68">
-        <v>18.190000000000001</v>
+        <v>17.86</v>
       </c>
       <c r="F68">
-        <v>0.2</v>
-      </c>
-      <c r="G68" t="s">
-        <v>21</v>
+        <v>0.02</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H68" t="s">
+        <v>216</v>
       </c>
       <c r="I68">
-        <v>201.43971669999999</v>
+        <v>69.424440829999995</v>
       </c>
       <c r="J68">
-        <v>56.970493329999996</v>
+        <v>-11.038880560000001</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C69">
-        <v>22.351363429999999</v>
+        <v>11.27730094</v>
       </c>
       <c r="D69">
-        <v>0.40466259399999999</v>
+        <v>2.2001709999999999E-3</v>
       </c>
       <c r="E69">
-        <v>18.57</v>
+        <v>18.43</v>
       </c>
       <c r="F69">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
+        <v>98</v>
+      </c>
+      <c r="H69" t="s">
+        <v>216</v>
       </c>
       <c r="I69">
-        <v>183.7939887</v>
+        <v>147.7793825</v>
       </c>
       <c r="J69">
-        <v>-10.312398610000001</v>
+        <v>-43.502784169999998</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="C70">
-        <v>24.351696950000001</v>
+        <v>11.49988385</v>
       </c>
       <c r="D70">
-        <v>1.3520518E-2</v>
+        <v>4.69478E-3</v>
       </c>
       <c r="E70">
-        <v>18.16</v>
+        <v>18.39</v>
       </c>
       <c r="F70">
-        <v>0.2</v>
-      </c>
-      <c r="G70" t="s">
-        <v>21</v>
+        <v>0.33</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H70" t="s">
+        <v>219</v>
       </c>
       <c r="I70">
-        <v>129.45955710000001</v>
+        <v>44.542618330000003</v>
       </c>
       <c r="J70">
-        <v>-6.8068830560000002</v>
+        <v>-12.88500056</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C71">
-        <v>23.731774000000001</v>
+        <v>11.69272</v>
       </c>
       <c r="D71">
-        <v>1.5375280999999999E-2</v>
+        <v>1.0322336999999999E-2</v>
       </c>
       <c r="E71">
-        <v>18.11</v>
+        <v>18.29</v>
       </c>
       <c r="F71">
         <v>0.2</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="H71" t="s">
+        <v>216</v>
       </c>
       <c r="I71">
-        <v>220.12960960000001</v>
+        <v>76.377731670000003</v>
       </c>
       <c r="J71">
-        <v>-16.209292219999998</v>
+        <v>-57.472704440000001</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C72">
-        <v>47.589813880000001</v>
+        <v>12.18928002</v>
       </c>
       <c r="D72">
-        <v>3.5783686000000002E-2</v>
+        <v>4.5613609999999999E-3</v>
       </c>
       <c r="E72">
-        <v>18.21</v>
+        <v>17.34</v>
       </c>
       <c r="F72">
-        <v>0.2</v>
-      </c>
-      <c r="G72" t="s">
-        <v>21</v>
+        <v>0.13</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H72" t="s">
+        <v>219</v>
       </c>
       <c r="I72">
-        <v>57.604027500000001</v>
+        <v>197.5526217</v>
       </c>
       <c r="J72">
-        <v>17.246508330000001</v>
+        <v>47.755186940000002</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C73">
-        <v>48.147755830000001</v>
+        <v>12.270134369999999</v>
       </c>
       <c r="D73">
-        <v>6.1664288999999997E-2</v>
+        <v>3.8090720000000002E-3</v>
       </c>
       <c r="E73">
-        <v>18.37</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="F73">
         <v>0.2</v>
       </c>
       <c r="G73" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="H73" t="s">
+        <v>216</v>
       </c>
       <c r="I73">
-        <v>330.79488629999997</v>
+        <v>85.334731669999996</v>
       </c>
       <c r="J73">
-        <v>18.884319170000001</v>
+        <v>53.48105778</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C74">
-        <v>54.053761870000002</v>
+        <v>12.46691592</v>
       </c>
       <c r="D74">
-        <v>1.398085714</v>
+        <v>1.1128357E-2</v>
       </c>
       <c r="E74">
-        <v>18.079999999999998</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F74">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G74" t="s">
-        <v>21</v>
+        <v>124</v>
+      </c>
+      <c r="H74" t="s">
+        <v>219</v>
       </c>
       <c r="I74">
-        <v>74.9602225</v>
+        <v>346.62236830000001</v>
       </c>
       <c r="J74">
-        <v>-10.263310000000001</v>
+        <v>-5.0413991669999998</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="C75">
-        <v>11.27730094</v>
+        <v>12.607065499999999</v>
       </c>
       <c r="D75">
-        <v>2.2001709999999999E-3</v>
-      </c>
-      <c r="E75" s="3">
-        <v>18.43</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0.125</v>
+        <v>2.892674E-3</v>
+      </c>
+      <c r="E75">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="F75">
+        <v>0.62</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>102</v>
+        <v>137</v>
+      </c>
+      <c r="H75" t="s">
+        <v>219</v>
       </c>
       <c r="I75">
-        <v>147.7793825</v>
+        <v>153.71574419999999</v>
       </c>
       <c r="J75">
-        <v>-43.502784169999998</v>
+        <v>-47.15672</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -3799,7 +4051,7 @@
         <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C76">
         <v>12.932244089999999</v>
@@ -3807,14 +4059,17 @@
       <c r="D76">
         <v>2.8431300000000001E-3</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76">
         <v>18.600000000000001</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>102</v>
+      <c r="G76" t="s">
+        <v>98</v>
+      </c>
+      <c r="H76" t="s">
+        <v>216</v>
       </c>
       <c r="I76">
         <v>88.517668749999999</v>
@@ -3825,1516 +4080,1674 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C77">
-        <v>21.562737859999999</v>
+        <v>13.123359580000001</v>
       </c>
       <c r="D77">
-        <v>1.0275431999999999E-2</v>
-      </c>
-      <c r="E77" s="3">
-        <v>18.45</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0.115</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>102</v>
+        <v>7.9222381999999994E-2</v>
+      </c>
+      <c r="E77">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="F77">
+        <v>0.2</v>
+      </c>
+      <c r="G77" t="s">
+        <v>38</v>
+      </c>
+      <c r="H77" t="s">
+        <v>217</v>
       </c>
       <c r="I77">
-        <v>168.63817169999999</v>
+        <v>79.172327920000001</v>
       </c>
       <c r="J77">
-        <v>25.710386110000002</v>
+        <v>45.997991390000003</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>4.9670880740000003</v>
+        <v>13.478178829999999</v>
       </c>
       <c r="D78">
-        <v>5.8472600000000004E-4</v>
-      </c>
-      <c r="E78" s="3">
-        <v>18.2</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>102</v>
+        <v>3.7840049000000001E-2</v>
+      </c>
+      <c r="E78">
+        <v>18.070462389999999</v>
+      </c>
+      <c r="F78">
+        <v>0.125862748</v>
+      </c>
+      <c r="G78" t="s">
+        <v>214</v>
+      </c>
+      <c r="H78" t="s">
+        <v>216</v>
       </c>
       <c r="I78">
-        <v>323.3915629</v>
+        <v>24.19933958</v>
       </c>
       <c r="J78">
-        <v>-49.008999719999998</v>
+        <v>41.405458609999997</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C79">
-        <v>4.672067577</v>
+        <v>13.76615975</v>
       </c>
       <c r="D79">
-        <v>7.7708400000000004E-4</v>
-      </c>
-      <c r="E79" s="3">
-        <v>18.03</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>102</v>
+        <v>5.5336090000000001E-3</v>
+      </c>
+      <c r="E79">
+        <v>18.29</v>
+      </c>
+      <c r="F79">
+        <v>0.2</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" t="s">
+        <v>216</v>
       </c>
       <c r="I79">
-        <v>343.31971870000001</v>
+        <v>1.653266667</v>
       </c>
       <c r="J79">
-        <v>-14.26369556</v>
+        <v>29.021503330000002</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="B80" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C80">
-        <v>6.3004707079999998</v>
+        <v>14.438848589999999</v>
       </c>
       <c r="D80">
-        <v>1.194847E-3</v>
-      </c>
-      <c r="E80" s="3">
-        <v>18.010000000000002</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>102</v>
+        <v>1.0111297E-2</v>
+      </c>
+      <c r="E80">
+        <v>18.12</v>
+      </c>
+      <c r="F80">
+        <v>0.01</v>
+      </c>
+      <c r="G80" t="s">
+        <v>162</v>
+      </c>
+      <c r="H80" t="s">
+        <v>216</v>
       </c>
       <c r="I80">
-        <v>229.8617787</v>
+        <v>129.79876920000001</v>
       </c>
       <c r="J80">
-        <v>-7.7222747219999999</v>
+        <v>65.020906389999993</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C81">
-        <v>9.4851912449999993</v>
+        <v>14.57921471</v>
       </c>
       <c r="D81">
-        <v>1.8893460000000001E-3</v>
-      </c>
-      <c r="E81" s="3">
-        <v>17.46</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>102</v>
+        <v>2.2105565000000001E-2</v>
+      </c>
+      <c r="E81">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="F81">
+        <v>0.02</v>
+      </c>
+      <c r="G81" t="s">
+        <v>164</v>
+      </c>
+      <c r="H81" t="s">
+        <v>216</v>
       </c>
       <c r="I81">
-        <v>70.732395830000002</v>
+        <v>81.106096669999999</v>
       </c>
       <c r="J81">
-        <v>18.958165279999999</v>
+        <v>17.383534999999998</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C82">
-        <v>9.7750372920000004</v>
+        <v>14.64158855</v>
       </c>
       <c r="D82">
-        <v>2.8856509999999999E-3</v>
-      </c>
-      <c r="E82" s="3">
-        <v>18.04</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>102</v>
+        <v>1.3977323E-2</v>
+      </c>
+      <c r="E82">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="F82">
+        <v>0.66</v>
+      </c>
+      <c r="G82" t="s">
+        <v>98</v>
+      </c>
+      <c r="H82" t="s">
+        <v>219</v>
       </c>
       <c r="I82">
-        <v>175.54622209999999</v>
+        <v>258.82889119999999</v>
       </c>
       <c r="J82">
-        <v>26.706569439999999</v>
+        <v>4.9639072219999996</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C83">
-        <v>7.2428970719999999</v>
+        <v>15.13534785</v>
       </c>
       <c r="D83">
-        <v>1.4846060000000001E-3</v>
-      </c>
-      <c r="E83" s="3">
-        <v>17.98</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0.15</v>
+        <v>3.9401549999999999E-3</v>
+      </c>
+      <c r="E83">
+        <v>18.48</v>
+      </c>
+      <c r="F83">
+        <v>0.06</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>102</v>
+        <v>126</v>
+      </c>
+      <c r="H83" t="s">
+        <v>219</v>
       </c>
       <c r="I83">
-        <v>259.74511330000001</v>
+        <v>62.315284579999997</v>
       </c>
       <c r="J83">
-        <v>-34.99683667</v>
+        <v>-53.373691669999999</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>14.64158855</v>
+        <v>15.89754351</v>
       </c>
       <c r="D84">
-        <v>1.3977323E-2</v>
-      </c>
-      <c r="E84" s="3">
-        <v>18.059999999999999</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0.66</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>102</v>
+        <v>2.0395463999999999E-2</v>
+      </c>
+      <c r="E84">
+        <v>18.25</v>
+      </c>
+      <c r="F84">
+        <v>0.2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" t="s">
+        <v>216</v>
       </c>
       <c r="I84">
-        <v>258.82889119999999</v>
+        <v>238.1689208</v>
       </c>
       <c r="J84">
-        <v>4.9639072219999996</v>
+        <v>42.451517219999999</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C85">
-        <v>20.867329689999998</v>
+        <v>15.979903670000001</v>
       </c>
       <c r="D85">
-        <v>1.0973225E-2</v>
+        <v>7.7373269999999996E-3</v>
       </c>
       <c r="E85">
-        <v>18.28</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="F85">
         <v>0.02</v>
       </c>
-      <c r="G85" t="s">
-        <v>113</v>
+      <c r="G85" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H85" t="s">
+        <v>219</v>
       </c>
       <c r="I85">
-        <v>341.24151169999999</v>
+        <v>262.54668500000002</v>
       </c>
       <c r="J85">
-        <v>-33.250484440000001</v>
+        <v>-51.636980559999998</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C86">
-        <v>16.825952350000001</v>
+        <v>16.698672460000001</v>
       </c>
       <c r="D86">
-        <v>8.1536449999999993E-3</v>
+        <v>5.3538370000000002E-3</v>
       </c>
       <c r="E86">
-        <v>17.809999999999999</v>
+        <v>17.87</v>
       </c>
       <c r="F86">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="G86" t="s">
-        <v>113</v>
+        <v>19</v>
+      </c>
+      <c r="H86" t="s">
+        <v>216</v>
       </c>
       <c r="I86">
-        <v>56.847254999999997</v>
+        <v>93.438730419999999</v>
       </c>
       <c r="J86">
-        <v>-1.9722074999999999</v>
+        <v>-23.86193639</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="C87">
-        <v>29.651857540000002</v>
+        <v>16.784155760000001</v>
       </c>
       <c r="D87">
-        <v>1.4859031E-2</v>
+        <v>0.10704899499999999</v>
       </c>
       <c r="E87">
-        <v>18.22</v>
+        <v>18.13</v>
       </c>
       <c r="F87">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="G87" t="s">
-        <v>116</v>
+        <v>34</v>
+      </c>
+      <c r="H87" t="s">
+        <v>217</v>
       </c>
       <c r="I87">
-        <v>351.77015669999997</v>
+        <v>2.2945212499999998</v>
       </c>
       <c r="J87">
-        <v>-1.2862727780000001</v>
+        <v>59.149781109999999</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C88">
-        <v>18.28738628</v>
+        <v>16.825952350000001</v>
       </c>
       <c r="D88">
-        <v>1.1838769000000001E-2</v>
+        <v>8.1536449999999993E-3</v>
       </c>
       <c r="E88">
-        <v>18.510000000000002</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="F88">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G88" t="s">
-        <v>118</v>
+        <v>109</v>
+      </c>
+      <c r="H88" t="s">
+        <v>216</v>
       </c>
       <c r="I88">
-        <v>84.291195000000002</v>
+        <v>56.847254999999997</v>
       </c>
       <c r="J88">
-        <v>-80.469120559999993</v>
+        <v>-1.9722074999999999</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B89" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C89">
-        <v>6.0414126760000002</v>
+        <v>17.114613139999999</v>
       </c>
       <c r="D89">
-        <v>2.8614959999999998E-3</v>
+        <v>1.1833563E-2</v>
       </c>
       <c r="E89">
-        <v>18.329999999999998</v>
+        <v>18.13</v>
       </c>
       <c r="F89">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="G89" t="s">
-        <v>120</v>
+        <v>19</v>
+      </c>
+      <c r="H89" t="s">
+        <v>216</v>
       </c>
       <c r="I89">
-        <v>49.98187875</v>
+        <v>271.59883129999997</v>
       </c>
       <c r="J89">
-        <v>-43.069781939999999</v>
+        <v>-36.019786109999998</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C90">
-        <v>6.0122457420000002</v>
+        <v>17.35716356</v>
       </c>
       <c r="D90">
-        <v>3.8496659999999999E-3</v>
+        <v>1.1538684E-2</v>
       </c>
       <c r="E90">
-        <v>18.28</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="F90">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="G90" t="s">
-        <v>120</v>
+        <v>174</v>
+      </c>
+      <c r="H90" t="s">
+        <v>216</v>
       </c>
       <c r="I90">
-        <v>302.7997446</v>
+        <v>40.639444169999997</v>
       </c>
       <c r="J90">
-        <v>-36.10120861</v>
+        <v>-50.800293060000001</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="C91">
-        <v>3.933931973</v>
+        <v>18.073671900000001</v>
       </c>
       <c r="D91">
-        <v>2.5999399999999999E-4</v>
+        <v>6.7291470000000004E-3</v>
       </c>
       <c r="E91">
-        <v>17.98</v>
+        <v>17.7</v>
       </c>
       <c r="F91">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="G91" t="s">
-        <v>120</v>
+        <v>22</v>
+      </c>
+      <c r="H91" t="s">
+        <v>220</v>
       </c>
       <c r="I91">
-        <v>77.919124170000003</v>
+        <v>143.18233079999999</v>
       </c>
       <c r="J91">
-        <v>-45.018433610000002</v>
+        <v>26.988529440000001</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="C92">
-        <v>2.5461301500000002</v>
+        <v>18.133023860000002</v>
       </c>
       <c r="D92">
-        <v>2.08097E-4</v>
+        <v>1.1442468000000001E-2</v>
       </c>
       <c r="E92">
-        <v>17.84</v>
+        <v>18.346519499999999</v>
       </c>
       <c r="F92">
-        <v>0.03</v>
+        <v>0.122209912</v>
       </c>
       <c r="G92" t="s">
-        <v>120</v>
+        <v>214</v>
+      </c>
+      <c r="H92" t="s">
+        <v>216</v>
       </c>
       <c r="I92">
-        <v>165.83414500000001</v>
+        <v>326.1305413</v>
       </c>
       <c r="J92">
-        <v>35.969882220000002</v>
+        <v>14.771939720000001</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="C93">
-        <v>1.826648834</v>
+        <v>18.269445080000001</v>
       </c>
       <c r="D93">
-        <v>9.6729400000000005E-4</v>
+        <v>8.1440520000000006E-3</v>
       </c>
       <c r="E93">
-        <v>17.72</v>
+        <v>19.05</v>
       </c>
       <c r="F93">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="G93" t="s">
-        <v>120</v>
+        <v>22</v>
+      </c>
+      <c r="H93" t="s">
+        <v>220</v>
       </c>
       <c r="I93">
-        <v>269.45208209999998</v>
+        <v>143.1065346</v>
       </c>
       <c r="J93">
-        <v>4.6933641670000004</v>
+        <v>-11.18463667</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C94">
-        <v>36.552646780000003</v>
+        <v>18.28738628</v>
       </c>
       <c r="D94">
-        <v>1.6701199999999999E-2</v>
+        <v>1.1838769000000001E-2</v>
       </c>
       <c r="E94">
-        <v>18.649999999999999</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="F94">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="G94" t="s">
-        <v>126</v>
+        <v>114</v>
+      </c>
+      <c r="H94" t="s">
+        <v>219</v>
       </c>
       <c r="I94">
-        <v>289.75228709999999</v>
+        <v>84.291195000000002</v>
       </c>
       <c r="J94">
-        <v>41.63460611</v>
+        <v>-80.469120559999993</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="C95">
-        <v>12.46691592</v>
+        <v>18.945206670000001</v>
       </c>
       <c r="D95">
-        <v>1.1128357E-2</v>
+        <v>4.9172160000000003E-3</v>
       </c>
       <c r="E95">
-        <v>18.399999999999999</v>
+        <v>17.95</v>
       </c>
       <c r="F95">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G95" t="s">
-        <v>128</v>
+        <v>22</v>
+      </c>
+      <c r="H95" t="s">
+        <v>220</v>
       </c>
       <c r="I95">
-        <v>346.62236830000001</v>
+        <v>349.86099380000002</v>
       </c>
       <c r="J95">
-        <v>-5.0413991669999998</v>
+        <v>79.003520280000004</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="C96">
-        <v>8.8148675080000007</v>
+        <v>19.481404999999999</v>
       </c>
       <c r="D96">
-        <v>2.3310570000000001E-3</v>
+        <v>0.21112982999999999</v>
       </c>
       <c r="E96">
-        <v>17.829999999999998</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="F96">
-        <v>7.0000000000000007E-2</v>
+        <v>0.2</v>
       </c>
       <c r="G96" t="s">
-        <v>130</v>
+        <v>34</v>
+      </c>
+      <c r="H96" t="s">
+        <v>217</v>
       </c>
       <c r="I96">
-        <v>332.41810120000002</v>
+        <v>28.27043917</v>
       </c>
       <c r="J96">
-        <v>-4.6407361109999998</v>
+        <v>29.578818609999999</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="B97" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="C97">
-        <v>10.39141337</v>
+        <v>19.77582129</v>
       </c>
       <c r="D97">
-        <v>2.6347480000000001E-3</v>
+        <v>6.3355470000000004E-3</v>
       </c>
       <c r="E97">
-        <v>18.190000000000001</v>
+        <v>18.48</v>
       </c>
       <c r="F97">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="G97" t="s">
-        <v>130</v>
+        <v>166</v>
+      </c>
+      <c r="H97" t="s">
+        <v>219</v>
       </c>
       <c r="I97">
-        <v>254.5368733</v>
+        <v>300.18213709999998</v>
       </c>
       <c r="J97">
-        <v>25.744159440000001</v>
+        <v>22.710853610000001</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="B98" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C98">
-        <v>2.9759548800000002</v>
+        <v>20.211942430000001</v>
       </c>
       <c r="D98">
-        <v>2.80745E-4</v>
+        <v>7.2717019999999997E-3</v>
       </c>
       <c r="E98">
-        <v>17.72</v>
+        <v>17.8</v>
       </c>
       <c r="F98">
-        <v>0.03</v>
-      </c>
-      <c r="G98" t="s">
-        <v>130</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H98" t="s">
+        <v>219</v>
       </c>
       <c r="I98">
-        <v>282.45568209999999</v>
+        <v>4.7731762499999997</v>
       </c>
       <c r="J98">
-        <v>-23.83623528</v>
+        <v>-9.9648522219999993</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="C99">
-        <v>12.18928002</v>
+        <v>20.433183490000001</v>
       </c>
       <c r="D99">
-        <v>4.5613609999999999E-3</v>
+        <v>0.32148653199999999</v>
       </c>
       <c r="E99">
-        <v>17.34</v>
+        <v>18.29</v>
       </c>
       <c r="F99">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G99" t="s">
-        <v>130</v>
+        <v>205</v>
+      </c>
+      <c r="H99" t="s">
+        <v>216</v>
       </c>
       <c r="I99">
-        <v>197.5526217</v>
+        <v>68.980162500000006</v>
       </c>
       <c r="J99">
-        <v>47.755186940000002</v>
+        <v>16.509302219999999</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C100">
-        <v>3.5624359650000001</v>
+        <v>20.806241870000001</v>
       </c>
       <c r="D100">
-        <v>2.57626E-4</v>
+        <v>0.14805170100000001</v>
       </c>
       <c r="E100">
-        <v>18.059999999999999</v>
+        <v>18.82</v>
       </c>
       <c r="F100">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="G100" t="s">
-        <v>130</v>
+        <v>19</v>
+      </c>
+      <c r="H100" t="s">
+        <v>216</v>
       </c>
       <c r="I100">
-        <v>4.5953537500000001</v>
+        <v>321.16884169999997</v>
       </c>
       <c r="J100">
-        <v>44.022954720000001</v>
+        <v>-68.227924169999994</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C101">
-        <v>29.396893339999998</v>
+        <v>20.867329689999998</v>
       </c>
       <c r="D101">
-        <v>2.2036521999999999E-2</v>
+        <v>1.0973225E-2</v>
       </c>
       <c r="E101">
-        <v>18.07</v>
+        <v>18.28</v>
       </c>
       <c r="F101">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="G101" t="s">
-        <v>136</v>
+        <v>109</v>
+      </c>
+      <c r="H101" t="s">
+        <v>216</v>
       </c>
       <c r="I101">
-        <v>119.77433120000001</v>
+        <v>341.24151169999999</v>
       </c>
       <c r="J101">
-        <v>15.39145444</v>
+        <v>-33.250484440000001</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
+        <v>73</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <v>21.562737859999999</v>
+      </c>
+      <c r="D102">
+        <v>1.0275431999999999E-2</v>
+      </c>
+      <c r="E102">
+        <v>18.45</v>
+      </c>
+      <c r="F102">
+        <v>0.115</v>
+      </c>
+      <c r="G102" t="s">
         <v>98</v>
       </c>
-      <c r="B102" t="s">
-        <v>137</v>
-      </c>
-      <c r="C102">
-        <v>15.13534785</v>
-      </c>
-      <c r="D102">
-        <v>3.9401549999999999E-3</v>
-      </c>
-      <c r="E102">
-        <v>18.48</v>
-      </c>
-      <c r="F102">
-        <v>0.06</v>
-      </c>
-      <c r="G102" t="s">
-        <v>130</v>
+      <c r="H102" t="s">
+        <v>216</v>
       </c>
       <c r="I102">
-        <v>62.315284579999997</v>
+        <v>168.63817169999999</v>
       </c>
       <c r="J102">
-        <v>-53.373691669999999</v>
+        <v>25.710386110000002</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B103" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="C103">
-        <v>15.979903670000001</v>
+        <v>21.649192159999998</v>
       </c>
       <c r="D103">
-        <v>7.7373269999999996E-3</v>
+        <v>6.3741500000000003E-3</v>
       </c>
       <c r="E103">
-        <v>18.239999999999998</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="F103">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="G103" t="s">
-        <v>130</v>
+        <v>19</v>
+      </c>
+      <c r="H103" t="s">
+        <v>216</v>
       </c>
       <c r="I103">
-        <v>262.54668500000002</v>
+        <v>201.43971669999999</v>
       </c>
       <c r="J103">
-        <v>-51.636980559999998</v>
+        <v>56.970493329999996</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B104" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C104">
-        <v>4.5527741649999998</v>
+        <v>21.751519340000002</v>
       </c>
       <c r="D104">
-        <v>5.4306700000000005E-4</v>
+        <v>8.1378119999999995E-3</v>
       </c>
       <c r="E104">
-        <v>17.96</v>
+        <v>18.54</v>
       </c>
       <c r="F104">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="G104" t="s">
-        <v>130</v>
+        <v>19</v>
+      </c>
+      <c r="H104" t="s">
+        <v>216</v>
       </c>
       <c r="I104">
-        <v>262.16643959999999</v>
+        <v>112.67713209999999</v>
       </c>
       <c r="J104">
-        <v>-46.895191109999999</v>
+        <v>-37.339362780000002</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="B105" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="C105">
-        <v>12.607065499999999</v>
+        <v>22.351363429999999</v>
       </c>
       <c r="D105">
-        <v>2.892674E-3</v>
+        <v>0.40466259399999999</v>
       </c>
       <c r="E105">
-        <v>17.489999999999998</v>
+        <v>18.57</v>
       </c>
       <c r="F105">
-        <v>0.62</v>
+        <v>0.2</v>
       </c>
       <c r="G105" t="s">
-        <v>141</v>
+        <v>19</v>
+      </c>
+      <c r="H105" t="s">
+        <v>216</v>
       </c>
       <c r="I105">
-        <v>153.71574419999999</v>
+        <v>183.7939887</v>
       </c>
       <c r="J105">
-        <v>-47.15672</v>
+        <v>-10.312398610000001</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="C106">
-        <v>87.451573690000004</v>
+        <v>22.69719894</v>
       </c>
       <c r="D106">
-        <v>0.115481447</v>
+        <v>1.1951778E-2</v>
       </c>
       <c r="E106">
-        <v>18.55</v>
+        <v>17.82</v>
       </c>
       <c r="F106">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="G106" t="s">
-        <v>143</v>
+        <v>19</v>
+      </c>
+      <c r="H106" t="s">
+        <v>216</v>
       </c>
       <c r="I106">
-        <v>357.87951629999998</v>
+        <v>168.13479290000001</v>
       </c>
       <c r="J106">
-        <v>-39.906738330000003</v>
+        <v>35.814079999999997</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B107" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="C107">
-        <v>38.099737490000003</v>
+        <v>23.731774000000001</v>
       </c>
       <c r="D107">
-        <v>3.8612292999999999E-2</v>
+        <v>1.5375280999999999E-2</v>
       </c>
       <c r="E107">
-        <v>18.16</v>
+        <v>18.11</v>
       </c>
       <c r="F107">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="G107" t="s">
-        <v>145</v>
+        <v>19</v>
+      </c>
+      <c r="H107" t="s">
+        <v>216</v>
       </c>
       <c r="I107">
-        <v>172.56049039999999</v>
+        <v>220.12960960000001</v>
       </c>
       <c r="J107">
-        <v>7.5884041670000002</v>
+        <v>-16.209292219999998</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="B108" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C108">
-        <v>3.2880092219999999</v>
+        <v>24.313153419999999</v>
       </c>
       <c r="D108">
-        <v>2.1622000000000001E-4</v>
+        <v>0.20689529700000001</v>
       </c>
       <c r="E108">
-        <v>18.100000000000001</v>
+        <v>18.28</v>
       </c>
       <c r="F108">
-        <v>0.01</v>
+        <v>0.17</v>
       </c>
       <c r="G108" t="s">
-        <v>147</v>
+        <v>233</v>
+      </c>
+      <c r="H108" t="s">
+        <v>215</v>
       </c>
       <c r="I108">
-        <v>346.46681539999997</v>
+        <v>152.09296209999999</v>
       </c>
       <c r="J108">
-        <v>-35.85307083</v>
+        <v>11.96720861</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="B109" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C109">
-        <v>3.7860588979999998</v>
+        <v>24.351696950000001</v>
       </c>
       <c r="D109">
-        <v>5.9200400000000003E-4</v>
+        <v>1.3520518E-2</v>
       </c>
       <c r="E109">
-        <v>18.12</v>
+        <v>18.16</v>
       </c>
       <c r="F109">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="G109" t="s">
-        <v>147</v>
+        <v>19</v>
+      </c>
+      <c r="H109" t="s">
+        <v>216</v>
       </c>
       <c r="I109">
-        <v>111.85207870000001</v>
+        <v>129.45955710000001</v>
       </c>
       <c r="J109">
-        <v>5.2257891670000003</v>
+        <v>-6.8068830560000002</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="B110" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="C110">
-        <v>4.0097420689999996</v>
+        <v>24.74292105</v>
       </c>
       <c r="D110">
-        <v>2.6576989999999999E-3</v>
+        <v>8.9382969999999996E-3</v>
       </c>
       <c r="E110">
-        <v>17.78</v>
+        <v>18.41</v>
       </c>
       <c r="F110">
-        <v>0.02</v>
-      </c>
-      <c r="G110" t="s">
-        <v>147</v>
+        <v>0.38</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H110" t="s">
+        <v>219</v>
       </c>
       <c r="I110">
-        <v>336.99815619999998</v>
+        <v>175.08460460000001</v>
       </c>
       <c r="J110">
-        <v>57.695022219999998</v>
+        <v>67.258989720000002</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="B111" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C111">
-        <v>5.7040803000000002</v>
+        <v>25.181749279999998</v>
       </c>
       <c r="D111">
-        <v>6.6374499999999998E-4</v>
+        <v>1.547254E-2</v>
       </c>
       <c r="E111">
-        <v>17.760000000000002</v>
+        <v>18.71</v>
       </c>
       <c r="F111">
-        <v>0.02</v>
-      </c>
-      <c r="G111" t="s">
-        <v>147</v>
+        <v>0.08</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H111" t="s">
+        <v>219</v>
       </c>
       <c r="I111">
-        <v>82.864148749999998</v>
+        <v>350.03135209999999</v>
       </c>
       <c r="J111">
-        <v>-3.6772288889999998</v>
+        <v>-60.065178889999999</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="C112">
-        <v>5.9172823110000001</v>
+        <v>25.924466469999999</v>
       </c>
       <c r="D112">
-        <v>9.4538399999999996E-4</v>
+        <v>7.9237990999999994E-2</v>
       </c>
       <c r="E112">
-        <v>18.12</v>
+        <v>18.45</v>
       </c>
       <c r="F112">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="G112" t="s">
-        <v>147</v>
+        <v>17</v>
+      </c>
+      <c r="H112" t="s">
+        <v>217</v>
       </c>
       <c r="I112">
-        <v>233.0538846</v>
+        <v>354.39101119999998</v>
       </c>
       <c r="J112">
-        <v>-41.275591669999997</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46.458151110000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="B113" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C113">
-        <v>5.9888523500000002</v>
+        <v>26.71204152</v>
       </c>
       <c r="D113">
-        <v>1.2302159999999999E-3</v>
+        <v>2.1762762000000001E-2</v>
       </c>
       <c r="E113">
-        <v>18.02</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="F113">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="G113" t="s">
-        <v>147</v>
+        <v>177</v>
+      </c>
+      <c r="H113" t="s">
+        <v>219</v>
       </c>
       <c r="I113">
-        <v>116.16738460000001</v>
+        <v>225.85243249999999</v>
       </c>
       <c r="J113">
-        <v>3.5524652780000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3.7825811109999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="B114" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="C114">
-        <v>6.1954030109999998</v>
+        <v>26.725319840000001</v>
       </c>
       <c r="D114">
-        <v>0.216480219</v>
+        <v>9.5708519999999995E-3</v>
       </c>
       <c r="E114">
-        <v>18.399999999999999</v>
+        <v>18.13</v>
       </c>
       <c r="F114">
-        <v>0.01</v>
-      </c>
-      <c r="G114" t="s">
-        <v>147</v>
+        <v>0.48</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H114" t="s">
+        <v>219</v>
       </c>
       <c r="I114">
-        <v>253.8698229</v>
+        <v>358.33269289999998</v>
       </c>
       <c r="J114">
-        <v>-8.3363297220000003</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59.945116110000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="B115" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C115">
-        <v>6.3336075789999997</v>
+        <v>27.15244195</v>
       </c>
       <c r="D115">
-        <v>7.9025700000000005E-4</v>
+        <v>1.297569E-2</v>
       </c>
       <c r="E115">
-        <v>17.97</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="F115">
-        <v>0.01</v>
-      </c>
-      <c r="G115" t="s">
-        <v>147</v>
+        <v>0.06</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H115" t="s">
+        <v>219</v>
       </c>
       <c r="I115">
-        <v>138.59489529999999</v>
+        <v>178.5766337</v>
       </c>
       <c r="J115">
-        <v>52.686608749999998</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-37.552732499999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="B116" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="C116">
-        <v>6.8637854330000003</v>
+        <v>27.34736071</v>
       </c>
       <c r="D116">
-        <v>1.149522E-3</v>
+        <v>1.7949074999999998E-2</v>
       </c>
       <c r="E116">
-        <v>17.8</v>
+        <v>18.46</v>
       </c>
       <c r="F116">
-        <v>0.1</v>
-      </c>
-      <c r="G116" t="s">
-        <v>156</v>
+        <v>0.16</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H116" t="s">
+        <v>219</v>
       </c>
       <c r="I116">
-        <v>45.46414</v>
+        <v>118.38800329999999</v>
       </c>
       <c r="J116">
-        <v>-16.593341939999998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+        <v>30.605071110000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="B117" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C117">
-        <v>8.0791367600000008</v>
+        <v>27.48037901</v>
       </c>
       <c r="D117">
-        <v>2.147464E-3</v>
+        <v>1.2309291E-2</v>
       </c>
       <c r="E117">
-        <v>17.8</v>
+        <v>18.75</v>
       </c>
       <c r="F117">
-        <v>0.1</v>
-      </c>
-      <c r="G117" t="s">
-        <v>156</v>
+        <v>0.15</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H117" t="s">
+        <v>219</v>
       </c>
       <c r="I117">
-        <v>191.98593539999999</v>
+        <v>156.7478917</v>
       </c>
       <c r="J117">
-        <v>9.7513986110000008</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-52.469428890000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="B118" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="C118">
-        <v>5.6885086439999997</v>
+        <v>28.27046923</v>
       </c>
       <c r="D118">
-        <v>1.5144069999999999E-3</v>
+        <v>1.5584779E-2</v>
       </c>
       <c r="E118">
-        <v>18</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="F118">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G118" t="s">
-        <v>159</v>
+        <v>22</v>
+      </c>
+      <c r="H118" t="s">
+        <v>220</v>
       </c>
       <c r="I118">
-        <v>278.90783370000003</v>
+        <v>4.5870395830000001</v>
       </c>
       <c r="J118">
-        <v>32.998143329999998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+        <v>30.95614694</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="B119" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C119">
-        <v>9.4186170269999998</v>
+        <v>28.6127945</v>
       </c>
       <c r="D119">
-        <v>1.2508160000000001E-3</v>
+        <v>1.7274401000000002E-2</v>
       </c>
       <c r="E119">
-        <v>17.78</v>
+        <v>17.5</v>
       </c>
       <c r="F119">
+        <v>0.3</v>
+      </c>
+      <c r="G119" t="s">
+        <v>172</v>
+      </c>
+      <c r="H119" t="s">
+        <v>219</v>
+      </c>
+      <c r="I119">
+        <v>183.93374119999999</v>
+      </c>
+      <c r="J119">
+        <v>52.517024720000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>185</v>
+      </c>
+      <c r="B120" t="s">
+        <v>194</v>
+      </c>
+      <c r="C120">
+        <v>29.38877231</v>
+      </c>
+      <c r="D120">
+        <v>1.4596527999999999E-2</v>
+      </c>
+      <c r="E120">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="F120">
+        <v>0.36</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H120" t="s">
+        <v>219</v>
+      </c>
+      <c r="I120">
+        <v>227.55403250000001</v>
+      </c>
+      <c r="J120">
+        <v>-16.46292278</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>186</v>
+      </c>
+      <c r="B121" t="s">
+        <v>195</v>
+      </c>
+      <c r="C121">
+        <v>29.396634089999999</v>
+      </c>
+      <c r="D121">
+        <v>1.2962431E-2</v>
+      </c>
+      <c r="E121">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="F121">
+        <v>0.11</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H121" t="s">
+        <v>219</v>
+      </c>
+      <c r="I121">
+        <v>227.5545304</v>
+      </c>
+      <c r="J121">
+        <v>-16.379410279999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>97</v>
+      </c>
+      <c r="B122" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122">
+        <v>29.396893339999998</v>
+      </c>
+      <c r="D122">
+        <v>2.2036521999999999E-2</v>
+      </c>
+      <c r="E122">
+        <v>18.07</v>
+      </c>
+      <c r="F122">
         <v>0.09</v>
       </c>
-      <c r="G119" t="s">
-        <v>161</v>
-      </c>
-      <c r="I119">
-        <v>146.12431960000001</v>
-      </c>
-      <c r="J119">
-        <v>-45.776507500000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>140</v>
-      </c>
-      <c r="B120" t="s">
-        <v>162</v>
-      </c>
-      <c r="C120">
-        <v>10.44951734</v>
-      </c>
-      <c r="D120">
-        <v>1.58329E-3</v>
-      </c>
-      <c r="E120">
-        <v>18.37</v>
-      </c>
-      <c r="F120">
-        <v>0.06</v>
-      </c>
-      <c r="G120" t="s">
-        <v>161</v>
-      </c>
-      <c r="I120">
-        <v>140.40667289999999</v>
-      </c>
-      <c r="J120">
-        <v>-60.281952779999997</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>166</v>
-      </c>
-      <c r="B121" t="s">
-        <v>163</v>
-      </c>
-      <c r="C121">
-        <v>20.211942430000001</v>
-      </c>
-      <c r="D121">
-        <v>7.2717019999999997E-3</v>
-      </c>
-      <c r="E121">
-        <v>17.8</v>
-      </c>
-      <c r="F121">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G121" t="s">
-        <v>161</v>
-      </c>
-      <c r="I121">
-        <v>4.7731762499999997</v>
-      </c>
-      <c r="J121">
-        <v>-9.9648522219999993</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>173</v>
-      </c>
-      <c r="B122" t="s">
-        <v>164</v>
-      </c>
-      <c r="C122">
-        <v>25.181749279999998</v>
-      </c>
-      <c r="D122">
-        <v>1.547254E-2</v>
-      </c>
-      <c r="E122">
-        <v>18.71</v>
-      </c>
-      <c r="F122">
+      <c r="G122" t="s">
+        <v>132</v>
+      </c>
+      <c r="H122" t="s">
+        <v>219</v>
+      </c>
+      <c r="I122">
+        <v>119.77433120000001</v>
+      </c>
+      <c r="J122">
+        <v>15.39145444</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>34</v>
+      </c>
+      <c r="B123" t="s">
+        <v>56</v>
+      </c>
+      <c r="C123">
+        <v>29.43054832</v>
+      </c>
+      <c r="D123">
+        <v>3.0228884000000001E-2</v>
+      </c>
+      <c r="E123">
+        <v>18.13</v>
+      </c>
+      <c r="F123">
+        <v>0.2</v>
+      </c>
+      <c r="G123" t="s">
+        <v>57</v>
+      </c>
+      <c r="H123" t="s">
+        <v>216</v>
+      </c>
+      <c r="I123">
+        <v>54.19704333</v>
+      </c>
+      <c r="J123">
+        <v>0.58776194400000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>35</v>
+      </c>
+      <c r="B124" t="s">
+        <v>58</v>
+      </c>
+      <c r="C124">
+        <v>29.533372709999998</v>
+      </c>
+      <c r="D124">
+        <v>0.13955521300000001</v>
+      </c>
+      <c r="E124">
+        <v>18.36</v>
+      </c>
+      <c r="F124">
+        <v>0.2</v>
+      </c>
+      <c r="G124" t="s">
+        <v>57</v>
+      </c>
+      <c r="H124" t="s">
+        <v>217</v>
+      </c>
+      <c r="I124">
+        <v>10.89737875</v>
+      </c>
+      <c r="J124">
+        <v>-17.98660611</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>83</v>
+      </c>
+      <c r="B125" t="s">
+        <v>111</v>
+      </c>
+      <c r="C125">
+        <v>29.651857540000002</v>
+      </c>
+      <c r="D125">
+        <v>1.4859031E-2</v>
+      </c>
+      <c r="E125">
+        <v>18.22</v>
+      </c>
+      <c r="F125">
+        <v>0.09</v>
+      </c>
+      <c r="G125" t="s">
+        <v>112</v>
+      </c>
+      <c r="H125" t="s">
+        <v>219</v>
+      </c>
+      <c r="I125">
+        <v>351.77015669999997</v>
+      </c>
+      <c r="J125">
+        <v>-1.2862727780000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>188</v>
+      </c>
+      <c r="B126" t="s">
+        <v>196</v>
+      </c>
+      <c r="C126">
+        <v>31.83131947</v>
+      </c>
+      <c r="D126">
+        <v>1.6718343E-2</v>
+      </c>
+      <c r="E126">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="F126">
         <v>0.08</v>
       </c>
-      <c r="G122" t="s">
-        <v>161</v>
-      </c>
-      <c r="I122">
-        <v>350.03135209999999</v>
-      </c>
-      <c r="J122">
-        <v>-60.065178889999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>178</v>
-      </c>
-      <c r="B123" t="s">
-        <v>165</v>
-      </c>
-      <c r="C123">
-        <v>27.15244195</v>
-      </c>
-      <c r="D123">
-        <v>1.297569E-2</v>
-      </c>
-      <c r="E123">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="F123">
-        <v>0.06</v>
-      </c>
-      <c r="G123" t="s">
-        <v>161</v>
-      </c>
-      <c r="I123">
-        <v>178.5766337</v>
-      </c>
-      <c r="J123">
-        <v>-37.552732499999998</v>
-      </c>
-      <c r="K123" s="3"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>166</v>
-      </c>
-      <c r="C124">
-        <v>147.72576190000001</v>
-      </c>
-      <c r="D124">
-        <v>0.46482776799999997</v>
-      </c>
-      <c r="E124">
-        <v>17.72</v>
-      </c>
-      <c r="F124">
-        <v>0.37</v>
-      </c>
-      <c r="G124" t="s">
-        <v>161</v>
-      </c>
-      <c r="I124">
-        <v>78.447514999999996</v>
-      </c>
-      <c r="J124">
-        <v>7.0560636109999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>153</v>
-      </c>
-      <c r="B125" t="s">
-        <v>167</v>
-      </c>
-      <c r="C125">
-        <v>14.438848589999999</v>
-      </c>
-      <c r="D125">
-        <v>1.0111297E-2</v>
-      </c>
-      <c r="E125">
-        <v>18.12</v>
-      </c>
-      <c r="F125">
-        <v>0.01</v>
-      </c>
-      <c r="G125" t="s">
-        <v>168</v>
-      </c>
-      <c r="I125">
-        <v>129.79876920000001</v>
-      </c>
-      <c r="J125">
-        <v>65.020906389999993</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>154</v>
-      </c>
-      <c r="B126" t="s">
-        <v>169</v>
-      </c>
-      <c r="C126">
-        <v>14.57921471</v>
-      </c>
-      <c r="D126">
-        <v>2.2105565000000001E-2</v>
-      </c>
-      <c r="E126">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="F126">
-        <v>0.02</v>
-      </c>
-      <c r="G126" t="s">
-        <v>170</v>
+      <c r="G126" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H126" t="s">
+        <v>216</v>
       </c>
       <c r="I126">
-        <v>81.106096669999999</v>
+        <v>293.3628367</v>
       </c>
       <c r="J126">
-        <v>17.383534999999998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+        <v>33.201866389999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="C127">
-        <v>19.77582129</v>
+        <v>31.867431490000001</v>
       </c>
       <c r="D127">
-        <v>6.3355470000000004E-3</v>
+        <v>0.24372795999999999</v>
       </c>
       <c r="E127">
-        <v>18.48</v>
+        <v>17.923319509999999</v>
       </c>
       <c r="F127">
-        <v>0.08</v>
+        <v>3.9294374999999999E-2</v>
       </c>
       <c r="G127" t="s">
-        <v>172</v>
+        <v>43</v>
+      </c>
+      <c r="H127" t="s">
+        <v>217</v>
       </c>
       <c r="I127">
-        <v>300.18213709999998</v>
+        <v>206.88515709999999</v>
       </c>
       <c r="J127">
-        <v>22.710853610000001</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+        <v>49.313266669999997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="B128" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="C128">
-        <v>24.313153419999999</v>
+        <v>32.097988739999998</v>
       </c>
       <c r="D128">
-        <v>0.20689529700000001</v>
+        <v>0.12445793400000001</v>
       </c>
       <c r="E128">
-        <v>18.28</v>
+        <v>18.05</v>
       </c>
       <c r="F128">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G128" t="s">
-        <v>174</v>
+        <v>19</v>
+      </c>
+      <c r="H128" t="s">
+        <v>216</v>
       </c>
       <c r="I128">
-        <v>152.09296209999999</v>
+        <v>143.6202475</v>
       </c>
       <c r="J128">
-        <v>11.96720861</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+        <v>69.830340559999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>189</v>
       </c>
       <c r="B129" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C129">
         <v>34.404340449999999</v>
@@ -5348,8 +5761,11 @@
       <c r="F129">
         <v>0.04</v>
       </c>
-      <c r="G129" t="s">
-        <v>176</v>
+      <c r="G129" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H129" t="s">
+        <v>216</v>
       </c>
       <c r="I129">
         <v>219.75087669999999</v>
@@ -5358,1188 +5774,1222 @@
         <v>64.291660829999998</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="C130">
-        <v>44.728320179999997</v>
+        <v>35.919540230000003</v>
       </c>
       <c r="D130">
-        <v>6.1619176999999997E-2</v>
+        <v>0.49028107500000001</v>
       </c>
       <c r="E130">
-        <v>18.14</v>
+        <v>18.47</v>
       </c>
       <c r="F130">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="G130" t="s">
-        <v>178</v>
+        <v>19</v>
+      </c>
+      <c r="H130" t="s">
+        <v>216</v>
       </c>
       <c r="I130">
-        <v>63.273387919999998</v>
+        <v>161.6924113</v>
       </c>
       <c r="J130">
-        <v>15.24778278</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-49.420256670000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="B131" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="C131">
-        <v>28.6127945</v>
+        <v>36.552646780000003</v>
       </c>
       <c r="D131">
-        <v>1.7274401000000002E-2</v>
+        <v>1.6701199999999999E-2</v>
       </c>
       <c r="E131">
-        <v>17.5</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="F131">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G131" t="s">
-        <v>180</v>
+        <v>122</v>
+      </c>
+      <c r="H131" t="s">
+        <v>219</v>
       </c>
       <c r="I131">
-        <v>183.93374119999999</v>
+        <v>289.75228709999999</v>
       </c>
       <c r="J131">
-        <v>52.517024720000002</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+        <v>41.63460611</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="B132" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="C132">
-        <v>17.35716356</v>
+        <v>36.871796760000002</v>
       </c>
       <c r="D132">
-        <v>1.1538684E-2</v>
+        <v>0.41683171899999999</v>
       </c>
       <c r="E132">
-        <v>18.809999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="F132">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="G132" t="s">
-        <v>182</v>
+        <v>34</v>
+      </c>
+      <c r="H132" t="s">
+        <v>217</v>
       </c>
       <c r="I132">
-        <v>40.639444169999997</v>
+        <v>115.8280317</v>
       </c>
       <c r="J132">
-        <v>-50.800293060000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+        <v>28.88350861</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B133" t="s">
         <v>183</v>
       </c>
       <c r="C133">
-        <v>42.750389030000001</v>
+        <v>37.839515050000003</v>
       </c>
       <c r="D133">
-        <v>5.5193394E-2</v>
+        <v>1.5463753E-2</v>
       </c>
       <c r="E133">
-        <v>18.079999999999998</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="F133">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G133" t="s">
         <v>184</v>
       </c>
+      <c r="H133" t="s">
+        <v>219</v>
+      </c>
       <c r="I133">
-        <v>68.098987080000001</v>
+        <v>297.70936330000001</v>
       </c>
       <c r="J133">
-        <v>17.750742219999999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+        <v>48.080861390000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>102</v>
+      </c>
       <c r="B134" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="C134">
-        <v>60.08604321</v>
+        <v>38.099737490000003</v>
       </c>
       <c r="D134">
-        <v>0.15018983599999999</v>
+        <v>3.8612292999999999E-2</v>
       </c>
       <c r="E134">
-        <v>19.05</v>
+        <v>18.16</v>
       </c>
       <c r="F134">
-        <v>0.15</v>
+        <v>0.39</v>
       </c>
       <c r="G134" t="s">
-        <v>186</v>
+        <v>141</v>
+      </c>
+      <c r="H134" t="s">
+        <v>219</v>
       </c>
       <c r="I134">
-        <v>165.4662725</v>
+        <v>172.56049039999999</v>
       </c>
       <c r="J134">
-        <v>-34.704730830000003</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.5884041670000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>194</v>
+      </c>
       <c r="B135" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="C135">
-        <v>71.48320502</v>
+        <v>38.653766619999999</v>
       </c>
       <c r="D135">
-        <v>0.112927653</v>
+        <v>5.8868078999999997E-2</v>
       </c>
       <c r="E135">
-        <v>19.04</v>
+        <v>17.71</v>
       </c>
       <c r="F135">
         <v>0.16</v>
       </c>
-      <c r="G135" t="s">
-        <v>188</v>
+      <c r="G135" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H135" t="s">
+        <v>219</v>
       </c>
       <c r="I135">
-        <v>273.5436742</v>
+        <v>47.106617919999998</v>
       </c>
       <c r="J135">
-        <v>-32.792921110000002</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+        <v>26.33094444</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>195</v>
+      </c>
       <c r="B136" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C136">
-        <v>98.816182139999995</v>
+        <v>42.750389030000001</v>
       </c>
       <c r="D136">
-        <v>0.108387478</v>
+        <v>5.5193394E-2</v>
       </c>
       <c r="E136">
-        <v>19.52</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="F136">
-        <v>0.01</v>
-      </c>
-      <c r="G136" t="s">
-        <v>188</v>
+        <v>0.3</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H136" t="s">
+        <v>216</v>
       </c>
       <c r="I136">
-        <v>131.75684960000001</v>
+        <v>68.098987080000001</v>
       </c>
       <c r="J136">
-        <v>-78.992883329999998</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17.750742219999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
+        <v>196</v>
+      </c>
+      <c r="B137" t="s">
+        <v>179</v>
+      </c>
+      <c r="C137">
+        <v>44.176050400000001</v>
+      </c>
+      <c r="D137">
+        <v>2.9272850999999999E-2</v>
+      </c>
+      <c r="E137">
+        <v>18.8</v>
+      </c>
+      <c r="F137">
+        <v>0.04</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H137" t="s">
+        <v>219</v>
+      </c>
+      <c r="I137">
+        <v>354.9145034</v>
+      </c>
+      <c r="J137">
+        <v>-69.195752150000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>40</v>
+      </c>
+      <c r="B138" t="s">
+        <v>64</v>
+      </c>
+      <c r="C138">
+        <v>44.53787501</v>
+      </c>
+      <c r="D138">
+        <v>5.0384006000000002E-2</v>
+      </c>
+      <c r="E138">
+        <v>18.12</v>
+      </c>
+      <c r="F138">
+        <v>0.2</v>
+      </c>
+      <c r="G138" t="s">
+        <v>19</v>
+      </c>
+      <c r="H138" t="s">
+        <v>216</v>
+      </c>
+      <c r="I138">
+        <v>67.694991669999993</v>
+      </c>
+      <c r="J138">
+        <v>16.14868083</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>197</v>
+      </c>
+      <c r="B139" t="s">
+        <v>169</v>
+      </c>
+      <c r="C139">
+        <v>44.728320179999997</v>
+      </c>
+      <c r="D139">
+        <v>6.1619176999999997E-2</v>
+      </c>
+      <c r="E139">
+        <v>18.14</v>
+      </c>
+      <c r="F139">
+        <v>0.08</v>
+      </c>
+      <c r="G139" t="s">
+        <v>170</v>
+      </c>
+      <c r="H139" t="s">
+        <v>219</v>
+      </c>
+      <c r="I139">
+        <v>63.273387919999998</v>
+      </c>
+      <c r="J139">
+        <v>15.24778278</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>41</v>
+      </c>
+      <c r="B140" t="s">
+        <v>65</v>
+      </c>
+      <c r="C140">
+        <v>46.98364969</v>
+      </c>
+      <c r="D140">
+        <v>4.9447177000000002E-2</v>
+      </c>
+      <c r="E140">
+        <v>18.11</v>
+      </c>
+      <c r="F140">
+        <v>0.2</v>
+      </c>
+      <c r="G140" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" t="s">
+        <v>216</v>
+      </c>
+      <c r="I140">
+        <v>66.899546670000007</v>
+      </c>
+      <c r="J140">
+        <v>15.58919167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>200</v>
+      </c>
+      <c r="B141" t="s">
+        <v>221</v>
+      </c>
+      <c r="C141">
+        <v>47.3119704</v>
+      </c>
+      <c r="D141">
+        <v>4.1858500999999999E-2</v>
+      </c>
+      <c r="E141">
+        <v>18.38</v>
+      </c>
+      <c r="F141">
+        <v>0.16</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H141" t="s">
+        <v>219</v>
+      </c>
+      <c r="I141">
+        <v>8.7396841670000001</v>
+      </c>
+      <c r="J141">
+        <v>4.3814677780000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>42</v>
+      </c>
+      <c r="B142" t="s">
+        <v>66</v>
+      </c>
+      <c r="C142">
+        <v>47.56898692</v>
+      </c>
+      <c r="D142">
+        <v>0.11721348400000001</v>
+      </c>
+      <c r="E142">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="F142">
+        <v>0.2</v>
+      </c>
+      <c r="G142" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" t="s">
+        <v>216</v>
+      </c>
+      <c r="I142">
+        <v>66.577075829999998</v>
+      </c>
+      <c r="J142">
+        <v>21.47043</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>68</v>
+      </c>
+      <c r="B143" t="s">
+        <v>94</v>
+      </c>
+      <c r="C143">
+        <v>47.589813880000001</v>
+      </c>
+      <c r="D143">
+        <v>3.5783686000000002E-2</v>
+      </c>
+      <c r="E143">
+        <v>18.21</v>
+      </c>
+      <c r="F143">
+        <v>0.2</v>
+      </c>
+      <c r="G143" t="s">
+        <v>19</v>
+      </c>
+      <c r="H143" t="s">
+        <v>216</v>
+      </c>
+      <c r="I143">
+        <v>57.604027500000001</v>
+      </c>
+      <c r="J143">
+        <v>17.246508330000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>69</v>
+      </c>
+      <c r="B144" t="s">
+        <v>95</v>
+      </c>
+      <c r="C144">
+        <v>48.147755830000001</v>
+      </c>
+      <c r="D144">
+        <v>6.1664288999999997E-2</v>
+      </c>
+      <c r="E144">
+        <v>18.37</v>
+      </c>
+      <c r="F144">
+        <v>0.2</v>
+      </c>
+      <c r="G144" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" t="s">
+        <v>216</v>
+      </c>
+      <c r="I144">
+        <v>330.79488629999997</v>
+      </c>
+      <c r="J144">
+        <v>18.884319170000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>51</v>
+      </c>
+      <c r="B145" t="s">
+        <v>75</v>
+      </c>
+      <c r="C145">
+        <v>51.024833790000002</v>
+      </c>
+      <c r="D145">
+        <v>1.495730153</v>
+      </c>
+      <c r="E145">
+        <v>18.3</v>
+      </c>
+      <c r="F145">
+        <v>0.2</v>
+      </c>
+      <c r="G145" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" t="s">
+        <v>220</v>
+      </c>
+      <c r="I145">
+        <v>311.93752330000001</v>
+      </c>
+      <c r="J145">
+        <v>-36.59465806</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>45</v>
+      </c>
+      <c r="B146" t="s">
+        <v>68</v>
+      </c>
+      <c r="C146">
+        <v>52.494264999999999</v>
+      </c>
+      <c r="D146">
+        <v>0.15459184400000001</v>
+      </c>
+      <c r="E146">
+        <v>18.18</v>
+      </c>
+      <c r="F146">
+        <v>0.2</v>
+      </c>
+      <c r="G146" t="s">
+        <v>69</v>
+      </c>
+      <c r="H146" t="s">
+        <v>215</v>
+      </c>
+      <c r="I146">
+        <v>76.377574999999993</v>
+      </c>
+      <c r="J146">
+        <v>52.831088610000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>43</v>
+      </c>
+      <c r="B147" t="s">
+        <v>225</v>
+      </c>
+      <c r="C147">
+        <v>53.458497495499998</v>
+      </c>
+      <c r="D147">
+        <v>0.38751916539999998</v>
+      </c>
+      <c r="E147">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="F147">
+        <v>0.2</v>
+      </c>
+      <c r="G147" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147" t="s">
+        <v>216</v>
+      </c>
+      <c r="I147">
+        <v>351.34492863550298</v>
+      </c>
+      <c r="J147">
+        <v>23.404100810476301</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>70</v>
+      </c>
+      <c r="B148" t="s">
+        <v>96</v>
+      </c>
+      <c r="C148">
+        <v>54.053761870000002</v>
+      </c>
+      <c r="D148">
+        <v>1.398085714</v>
+      </c>
+      <c r="E148">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="F148">
+        <v>0.2</v>
+      </c>
+      <c r="G148" t="s">
+        <v>19</v>
+      </c>
+      <c r="H148" t="s">
+        <v>216</v>
+      </c>
+      <c r="I148">
+        <v>74.9602225</v>
+      </c>
+      <c r="J148">
+        <v>-10.263310000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>212</v>
+      </c>
+      <c r="B149" t="s">
+        <v>197</v>
+      </c>
+      <c r="C149">
+        <v>54.232287730000003</v>
+      </c>
+      <c r="D149">
+        <v>6.6175676000000003E-2</v>
+      </c>
+      <c r="E149">
+        <v>17.96</v>
+      </c>
+      <c r="F149">
+        <v>0.33</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H149" t="s">
+        <v>219</v>
+      </c>
+      <c r="I149">
+        <v>306.54965959999998</v>
+      </c>
+      <c r="J149">
+        <v>9.4501191670000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>206</v>
+      </c>
+      <c r="C150">
+        <f>1000/17.7324</f>
+        <v>56.393945546006186</v>
+      </c>
+      <c r="D150">
+        <f>0.329/17.7324*C150</f>
+        <v>1.0463111640069047</v>
+      </c>
+      <c r="E150">
+        <v>18.79</v>
+      </c>
+      <c r="F150">
+        <v>0.1</v>
+      </c>
+      <c r="G150" t="s">
+        <v>205</v>
+      </c>
+      <c r="H150" t="s">
+        <v>216</v>
+      </c>
+      <c r="I150">
+        <v>334.62546849</v>
+      </c>
+      <c r="J150">
+        <v>-60.259629539999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>209</v>
+      </c>
+      <c r="C151">
+        <f>1000/17.0234</f>
+        <v>58.742671851686509</v>
+      </c>
+      <c r="D151">
+        <f>0.5614/17.0234*C151</f>
+        <v>1.9372238200087415</v>
+      </c>
+      <c r="E151">
+        <v>18.87</v>
+      </c>
+      <c r="F151">
+        <v>0.1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>205</v>
+      </c>
+      <c r="H151" t="s">
+        <v>216</v>
+      </c>
+      <c r="I151">
+        <v>112.30763598999999</v>
+      </c>
+      <c r="J151">
+        <v>-43.301435390000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>222</v>
+      </c>
+      <c r="B152" t="s">
+        <v>199</v>
+      </c>
+      <c r="C152">
+        <v>58.88657268</v>
+      </c>
+      <c r="D152">
+        <v>6.5538176000000004E-2</v>
+      </c>
+      <c r="E152">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="F152">
+        <v>0.4</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H152" t="s">
+        <v>219</v>
+      </c>
+      <c r="I152">
+        <v>67.412474579999994</v>
+      </c>
+      <c r="J152">
+        <v>22.882720280000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>37</v>
+      </c>
+      <c r="B153" t="s">
+        <v>60</v>
+      </c>
+      <c r="C153">
+        <v>59.679758419999999</v>
+      </c>
+      <c r="D153">
+        <v>0.26213918000000003</v>
+      </c>
+      <c r="E153">
+        <v>17.93</v>
+      </c>
+      <c r="F153">
+        <v>0.2</v>
+      </c>
+      <c r="G153" t="s">
+        <v>61</v>
+      </c>
+      <c r="H153" t="s">
+        <v>217</v>
+      </c>
+      <c r="I153">
+        <v>199.0910538</v>
+      </c>
+      <c r="J153">
+        <v>29.098725829999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>44</v>
+      </c>
+      <c r="B154" t="s">
+        <v>67</v>
+      </c>
+      <c r="C154">
+        <v>61.710110579999998</v>
+      </c>
+      <c r="D154">
+        <v>0.64281363800000002</v>
+      </c>
+      <c r="E154">
+        <v>18.7</v>
+      </c>
+      <c r="F154">
+        <v>0.2</v>
+      </c>
+      <c r="G154" t="s">
+        <v>19</v>
+      </c>
+      <c r="H154" t="s">
+        <v>216</v>
+      </c>
+      <c r="I154">
+        <v>320.56164960000001</v>
+      </c>
+      <c r="J154">
+        <v>-16.834543889999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>229</v>
+      </c>
+      <c r="B155" t="s">
+        <v>198</v>
+      </c>
+      <c r="C155">
+        <v>62.618976050000001</v>
+      </c>
+      <c r="D155">
+        <v>9.5675721000000005E-2</v>
+      </c>
+      <c r="E155">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="F155">
+        <v>0.09</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H155" t="s">
+        <v>219</v>
+      </c>
+      <c r="I155">
+        <v>353.95535419999999</v>
+      </c>
+      <c r="J155">
+        <v>0.44551222200000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>226</v>
+      </c>
+      <c r="C156">
+        <v>62.893081760999998</v>
+      </c>
+      <c r="D156">
+        <v>0.1218306238</v>
+      </c>
+      <c r="E156" s="6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F156" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H156" t="s">
+        <v>219</v>
+      </c>
+      <c r="I156">
+        <v>7.3012621638645898</v>
+      </c>
+      <c r="J156">
+        <v>-30.453740793368102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>232</v>
+      </c>
+      <c r="B157" t="s">
+        <v>200</v>
+      </c>
+      <c r="C157">
+        <v>64.401038139999997</v>
+      </c>
+      <c r="D157">
+        <v>0.107834839</v>
+      </c>
+      <c r="E157">
+        <v>17.54</v>
+      </c>
+      <c r="F157">
+        <v>0.64</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H157" t="s">
+        <v>219</v>
+      </c>
+      <c r="I157">
+        <v>188.38685039999999</v>
+      </c>
+      <c r="J157">
+        <v>-10.14617361</v>
+      </c>
+      <c r="P157" s="2"/>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>236</v>
+      </c>
+      <c r="B158" t="s">
+        <v>42</v>
+      </c>
+      <c r="C158">
+        <v>68.526005620000007</v>
+      </c>
+      <c r="D158">
+        <v>0.17703217199999999</v>
+      </c>
+      <c r="E158">
+        <v>17.95</v>
+      </c>
+      <c r="F158">
+        <v>0.03</v>
+      </c>
+      <c r="G158" t="s">
+        <v>43</v>
+      </c>
+      <c r="H158" t="s">
+        <v>215</v>
+      </c>
+      <c r="I158">
+        <v>194.2596767</v>
+      </c>
+      <c r="J158">
+        <v>22.031287219999999</v>
+      </c>
+      <c r="P158" s="2"/>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>53</v>
+      </c>
+      <c r="B159" t="s">
+        <v>78</v>
+      </c>
+      <c r="C159">
+        <v>75.1738395</v>
+      </c>
+      <c r="D159">
+        <v>0.27238331700000001</v>
+      </c>
+      <c r="E159">
+        <v>19.11</v>
+      </c>
+      <c r="F159">
+        <v>0.2</v>
+      </c>
+      <c r="G159" t="s">
+        <v>79</v>
+      </c>
+      <c r="H159" t="s">
+        <v>216</v>
+      </c>
+      <c r="I159">
+        <v>348.09006579999999</v>
+      </c>
+      <c r="J159">
+        <v>10.78451583</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>242</v>
+      </c>
+      <c r="B160" t="s">
+        <v>192</v>
+      </c>
+      <c r="C160">
+        <v>76.217769410000002</v>
+      </c>
+      <c r="D160">
+        <v>9.4108206E-2</v>
+      </c>
+      <c r="E160">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="F160">
+        <v>0.2</v>
+      </c>
+      <c r="G160" t="s">
+        <v>191</v>
+      </c>
+      <c r="H160" t="s">
+        <v>219</v>
+      </c>
+      <c r="I160">
+        <v>247.62341040000001</v>
+      </c>
+      <c r="J160">
+        <v>38.347307780000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>52</v>
+      </c>
+      <c r="B161" t="s">
+        <v>76</v>
+      </c>
+      <c r="C161">
+        <v>77.713965979999998</v>
+      </c>
+      <c r="D161">
+        <v>0.21923241500000001</v>
+      </c>
+      <c r="E161">
+        <v>18.47</v>
+      </c>
+      <c r="F161">
+        <v>0.2</v>
+      </c>
+      <c r="G161" t="s">
+        <v>77</v>
+      </c>
+      <c r="H161" t="s">
+        <v>216</v>
+      </c>
+      <c r="I161">
+        <v>38.78164125</v>
+      </c>
+      <c r="J161">
+        <v>3.732448889</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>204</v>
+      </c>
+      <c r="C162">
+        <f>1000/12.5234</f>
+        <v>79.850519826884067</v>
+      </c>
+      <c r="D162">
+        <f>0.1142/12.5234*C162</f>
+        <v>0.72815124999841585</v>
+      </c>
+      <c r="E162">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="F162">
+        <v>0.1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>205</v>
+      </c>
+      <c r="H162" t="s">
+        <v>216</v>
+      </c>
+      <c r="I162">
+        <v>120.56640384000001</v>
+      </c>
+      <c r="J162">
+        <v>2.3345718999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>208</v>
+      </c>
+      <c r="C163">
+        <f>1000/12.0676</f>
+        <v>82.866518611820069</v>
+      </c>
+      <c r="D163">
+        <f>0.1313/12.0676*C163</f>
+        <v>0.901618705768502</v>
+      </c>
+      <c r="E163">
+        <v>17.97</v>
+      </c>
+      <c r="F163">
+        <v>0.1</v>
+      </c>
+      <c r="G163" t="s">
+        <v>205</v>
+      </c>
+      <c r="H163" t="s">
+        <v>216</v>
+      </c>
+      <c r="I163">
+        <v>103.54749526000001</v>
+      </c>
+      <c r="J163">
+        <v>-12.0386281</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>46</v>
+      </c>
+      <c r="B164" t="s">
+        <v>70</v>
+      </c>
+      <c r="C164">
+        <v>84.411692709999997</v>
+      </c>
+      <c r="D164">
+        <v>0.70754563199999998</v>
+      </c>
+      <c r="E164">
+        <v>17.88</v>
+      </c>
+      <c r="F164">
+        <v>0.2</v>
+      </c>
+      <c r="G164" t="s">
+        <v>34</v>
+      </c>
+      <c r="H164" t="s">
+        <v>217</v>
+      </c>
+      <c r="I164">
+        <v>192.92466709999999</v>
+      </c>
+      <c r="J164">
+        <v>27.540712500000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>101</v>
+      </c>
+      <c r="B165" t="s">
+        <v>138</v>
+      </c>
+      <c r="C165">
+        <v>87.451573690000004</v>
+      </c>
+      <c r="D165">
+        <v>0.115481447</v>
+      </c>
+      <c r="E165">
+        <v>18.55</v>
+      </c>
+      <c r="F165">
+        <v>0.04</v>
+      </c>
+      <c r="G165" t="s">
+        <v>139</v>
+      </c>
+      <c r="H165" t="s">
+        <v>219</v>
+      </c>
+      <c r="I165">
+        <v>357.87951629999998</v>
+      </c>
+      <c r="J165">
+        <v>-39.906738330000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>207</v>
+      </c>
+      <c r="C166">
+        <f>1000/11.0209</f>
+        <v>90.736691195818864</v>
+      </c>
+      <c r="D166">
+        <f>0.1661/11.0209*C166</f>
+        <v>1.3675257381543715</v>
+      </c>
+      <c r="E166">
+        <v>19.53</v>
+      </c>
+      <c r="F166">
+        <v>0.1</v>
+      </c>
+      <c r="G166" t="s">
+        <v>205</v>
+      </c>
+      <c r="H166" t="s">
+        <v>216</v>
+      </c>
+      <c r="I166">
+        <v>151.97612548999999</v>
+      </c>
+      <c r="J166">
+        <v>9.9975068700000005</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167">
         <v>240</v>
       </c>
-      <c r="B137" t="s">
-        <v>190</v>
-      </c>
-      <c r="C137">
+      <c r="B167" t="s">
+        <v>228</v>
+      </c>
+      <c r="C167">
         <f>1000/10.1769244985008</f>
         <v>98.261513107158621</v>
       </c>
-      <c r="D137">
-        <f>0.018742694/10.1769244985008*C137</f>
+      <c r="D167">
+        <f>0.018742694/10.1769244985008*C167</f>
         <v>0.1809668011603868</v>
       </c>
-      <c r="E137">
+      <c r="E167">
         <v>19.22</v>
       </c>
-      <c r="F137">
+      <c r="F167">
         <v>0.15</v>
       </c>
-      <c r="G137" t="s">
-        <v>192</v>
-      </c>
-      <c r="I137">
+      <c r="G167" t="s">
+        <v>177</v>
+      </c>
+      <c r="H167" t="s">
+        <v>219</v>
+      </c>
+      <c r="I167">
         <v>317.82106540000001</v>
       </c>
-      <c r="J137">
+      <c r="J167">
         <v>33.524247219999999</v>
       </c>
-      <c r="L137" s="3"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>175</v>
-      </c>
-      <c r="B138" t="s">
-        <v>191</v>
-      </c>
-      <c r="C138">
-        <v>26.71204152</v>
-      </c>
-      <c r="D138">
-        <v>2.1762762000000001E-2</v>
-      </c>
-      <c r="E138">
-        <v>18.440000000000001</v>
-      </c>
-      <c r="F138">
-        <v>0.16</v>
-      </c>
-      <c r="G138" t="s">
-        <v>192</v>
-      </c>
-      <c r="I138">
-        <v>225.85243249999999</v>
-      </c>
-      <c r="J138">
-        <v>3.7825811109999998</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>109</v>
-      </c>
-      <c r="B139" t="s">
-        <v>193</v>
-      </c>
-      <c r="C139">
-        <v>3.8315879169999998</v>
-      </c>
-      <c r="D139">
-        <v>1.3712119999999999E-3</v>
-      </c>
-      <c r="E139">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F139">
-        <v>0.15</v>
-      </c>
-      <c r="G139" t="s">
-        <v>194</v>
-      </c>
-      <c r="I139">
-        <v>43.253715419999999</v>
-      </c>
-      <c r="J139">
-        <v>16.881286670000001</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>196</v>
-      </c>
-      <c r="B140" t="s">
-        <v>195</v>
-      </c>
-      <c r="C140">
-        <v>44.176050400000001</v>
-      </c>
-      <c r="D140">
-        <v>2.9272850999999999E-2</v>
-      </c>
-      <c r="E140">
-        <v>18.8</v>
-      </c>
-      <c r="F140">
-        <v>0.04</v>
-      </c>
-      <c r="G140" t="s">
-        <v>196</v>
-      </c>
-      <c r="I140">
-        <v>354.9145034</v>
-      </c>
-      <c r="J140">
-        <v>-69.195752150000004</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>143</v>
-      </c>
-      <c r="B141" t="s">
-        <v>197</v>
-      </c>
-      <c r="C141">
-        <v>11.214433420000001</v>
-      </c>
-      <c r="D141">
-        <v>3.9363979999999998E-3</v>
-      </c>
-      <c r="E141">
-        <v>17.86</v>
-      </c>
-      <c r="F141">
-        <v>0.02</v>
-      </c>
-      <c r="G141" t="s">
-        <v>198</v>
-      </c>
-      <c r="I141">
-        <v>69.424440829999995</v>
-      </c>
-      <c r="J141">
-        <v>-11.038880560000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>114</v>
-      </c>
-      <c r="B142" t="s">
-        <v>199</v>
-      </c>
-      <c r="C142">
-        <v>5.3749974470000002</v>
-      </c>
-      <c r="D142">
-        <v>8.0026999999999995E-4</v>
-      </c>
-      <c r="E142">
-        <v>17.72</v>
-      </c>
-      <c r="F142">
-        <v>0.02</v>
-      </c>
-      <c r="G142" t="s">
-        <v>198</v>
-      </c>
-      <c r="I142">
-        <v>75.489275419999998</v>
-      </c>
-      <c r="J142">
-        <v>-6.9462155560000003</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>132</v>
-      </c>
-      <c r="B143" t="s">
-        <v>200</v>
-      </c>
-      <c r="C143">
-        <v>8.8439615640000007</v>
-      </c>
-      <c r="D143">
-        <v>1.736388E-3</v>
-      </c>
-      <c r="E143">
-        <v>17.84</v>
-      </c>
-      <c r="F143">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G143" t="s">
-        <v>198</v>
-      </c>
-      <c r="I143">
-        <v>75.204163750000006</v>
-      </c>
-      <c r="J143">
-        <v>-5.7536733330000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>180</v>
-      </c>
-      <c r="B144" t="s">
-        <v>201</v>
-      </c>
-      <c r="C144">
-        <v>27.48037901</v>
-      </c>
-      <c r="D144">
-        <v>1.2309291E-2</v>
-      </c>
-      <c r="E144" s="3">
-        <v>18.75</v>
-      </c>
-      <c r="F144">
-        <v>0.15</v>
-      </c>
-      <c r="G144" t="s">
-        <v>202</v>
-      </c>
-      <c r="I144">
-        <v>156.7478917</v>
-      </c>
-      <c r="J144">
-        <v>-52.469428890000003</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>193</v>
-      </c>
-      <c r="B145" t="s">
-        <v>203</v>
-      </c>
-      <c r="C145">
-        <v>37.839515050000003</v>
-      </c>
-      <c r="D145">
-        <v>1.5463753E-2</v>
-      </c>
-      <c r="E145" s="3">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="F145" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I145">
-        <v>297.70936330000001</v>
-      </c>
-      <c r="J145">
-        <v>48.080861390000003</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="3">
-        <v>103</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C146" s="3">
-        <v>2.4085973439999999</v>
-      </c>
-      <c r="D146" s="3">
-        <v>3.9681200000000002E-4</v>
-      </c>
-      <c r="E146" s="3">
-        <v>18.2</v>
-      </c>
-      <c r="F146" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="I146" s="3">
-        <v>164.1205033</v>
-      </c>
-      <c r="J146" s="3">
-        <v>7.0147230560000002</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="3">
-        <v>105</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C147" s="3">
-        <v>3.155014043</v>
-      </c>
-      <c r="D147" s="3">
-        <v>1.2542180000000001E-3</v>
-      </c>
-      <c r="E147" s="3">
-        <v>18.07</v>
-      </c>
-      <c r="F147" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="I147" s="3">
-        <v>355.4793171</v>
-      </c>
-      <c r="J147" s="3">
-        <v>44.177451390000002</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="3">
-        <v>107</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C148" s="3">
-        <v>3.40599455</v>
-      </c>
-      <c r="D148" s="3">
-        <v>1.0440718999999999E-2</v>
-      </c>
-      <c r="E148" s="3">
-        <v>18.05</v>
-      </c>
-      <c r="F148" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="I148" s="3">
-        <v>339.63990000000001</v>
-      </c>
-      <c r="J148" s="3">
-        <v>-15.299932500000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="3">
-        <v>112</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C149" s="3">
-        <v>4.904663158</v>
-      </c>
-      <c r="D149" s="3">
-        <v>7.9865000000000003E-4</v>
-      </c>
-      <c r="E149" s="3">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="F149" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="I149" s="3">
-        <v>166.3690704</v>
-      </c>
-      <c r="J149" s="3">
-        <v>43.526773890000001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="3">
-        <v>113</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C150" s="3">
-        <v>4.9059938000000001</v>
-      </c>
-      <c r="D150" s="3">
-        <v>1.2034389999999999E-3</v>
-      </c>
-      <c r="E150" s="3">
-        <v>17.86</v>
-      </c>
-      <c r="F150" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="I150" s="3">
-        <v>166.3786896</v>
-      </c>
-      <c r="J150" s="3">
-        <v>43.521634720000002</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>136</v>
-      </c>
-      <c r="B151" t="s">
-        <v>210</v>
-      </c>
-      <c r="C151">
-        <v>9.4358405310000002</v>
-      </c>
-      <c r="D151">
-        <v>2.0210969999999999E-3</v>
-      </c>
-      <c r="E151">
-        <v>18.66</v>
-      </c>
-      <c r="F151">
-        <v>0.17</v>
-      </c>
-      <c r="G151" t="s">
-        <v>211</v>
-      </c>
-      <c r="I151">
-        <v>144.00682169999999</v>
-      </c>
-      <c r="J151">
-        <v>-21.660799170000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>242</v>
-      </c>
-      <c r="B152" t="s">
-        <v>212</v>
-      </c>
-      <c r="C152">
-        <v>76.217769410000002</v>
-      </c>
-      <c r="D152">
-        <v>9.4108206E-2</v>
-      </c>
-      <c r="E152">
-        <v>18.690000000000001</v>
-      </c>
-      <c r="F152">
-        <v>0.2</v>
-      </c>
-      <c r="G152" t="s">
-        <v>211</v>
-      </c>
-      <c r="I152">
-        <v>247.62341040000001</v>
-      </c>
-      <c r="J152">
-        <v>38.347307780000001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>145</v>
-      </c>
-      <c r="B153" t="s">
-        <v>213</v>
-      </c>
-      <c r="C153">
-        <v>11.49988385</v>
-      </c>
-      <c r="D153">
-        <v>4.69478E-3</v>
-      </c>
-      <c r="E153">
-        <v>18.39</v>
-      </c>
-      <c r="F153">
-        <v>0.33</v>
-      </c>
-      <c r="G153" t="s">
-        <v>226</v>
-      </c>
-      <c r="I153">
-        <v>44.542618330000003</v>
-      </c>
-      <c r="J153">
-        <v>-12.88500056</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>185</v>
-      </c>
-      <c r="B154" t="s">
-        <v>214</v>
-      </c>
-      <c r="C154">
-        <v>29.38877231</v>
-      </c>
-      <c r="D154">
-        <v>1.4596527999999999E-2</v>
-      </c>
-      <c r="E154">
-        <v>18.510000000000002</v>
-      </c>
-      <c r="F154">
-        <v>0.36</v>
-      </c>
-      <c r="G154" t="s">
-        <v>226</v>
-      </c>
-      <c r="I154">
-        <v>227.55403250000001</v>
-      </c>
-      <c r="J154">
-        <v>-16.46292278</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>186</v>
-      </c>
-      <c r="B155" t="s">
-        <v>215</v>
-      </c>
-      <c r="C155">
-        <v>29.396634089999999</v>
-      </c>
-      <c r="D155">
-        <v>1.2962431E-2</v>
-      </c>
-      <c r="E155">
-        <v>18.829999999999998</v>
-      </c>
-      <c r="F155">
-        <v>0.11</v>
-      </c>
-      <c r="G155" t="s">
-        <v>226</v>
-      </c>
-      <c r="I155">
-        <v>227.5545304</v>
-      </c>
-      <c r="J155">
-        <v>-16.379410279999998</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>172</v>
-      </c>
-      <c r="B156" t="s">
-        <v>216</v>
-      </c>
-      <c r="C156">
-        <v>24.74292105</v>
-      </c>
-      <c r="D156">
-        <v>8.9382969999999996E-3</v>
-      </c>
-      <c r="E156">
-        <v>18.41</v>
-      </c>
-      <c r="F156">
-        <v>0.38</v>
-      </c>
-      <c r="G156" t="s">
-        <v>226</v>
-      </c>
-      <c r="I156">
-        <v>175.08460460000001</v>
-      </c>
-      <c r="J156">
-        <v>67.258989720000002</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>176</v>
-      </c>
-      <c r="B157" t="s">
-        <v>225</v>
-      </c>
-      <c r="C157">
-        <v>26.725319840000001</v>
-      </c>
-      <c r="D157">
-        <v>9.5708519999999995E-3</v>
-      </c>
-      <c r="E157">
-        <v>18.13</v>
-      </c>
-      <c r="F157">
-        <v>0.48</v>
-      </c>
-      <c r="G157" t="s">
-        <v>226</v>
-      </c>
-      <c r="I157">
-        <v>358.33269289999998</v>
-      </c>
-      <c r="J157">
-        <v>59.945116110000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>179</v>
-      </c>
-      <c r="B158" t="s">
-        <v>217</v>
-      </c>
-      <c r="C158">
-        <v>27.34736071</v>
-      </c>
-      <c r="D158">
-        <v>1.7949074999999998E-2</v>
-      </c>
-      <c r="E158">
-        <v>18.46</v>
-      </c>
-      <c r="F158">
-        <v>0.16</v>
-      </c>
-      <c r="G158" t="s">
-        <v>226</v>
-      </c>
-      <c r="I158">
-        <v>118.38800329999999</v>
-      </c>
-      <c r="J158">
-        <v>30.605071110000001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>188</v>
-      </c>
-      <c r="B159" t="s">
-        <v>218</v>
-      </c>
-      <c r="C159">
-        <v>31.83131947</v>
-      </c>
-      <c r="D159">
-        <v>1.6718343E-2</v>
-      </c>
-      <c r="E159">
-        <v>18.850000000000001</v>
-      </c>
-      <c r="F159">
-        <v>0.08</v>
-      </c>
-      <c r="G159" t="s">
-        <v>226</v>
-      </c>
-      <c r="I159">
-        <v>293.3628367</v>
-      </c>
-      <c r="J159">
-        <v>33.201866389999999</v>
-      </c>
-      <c r="P159" s="2"/>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>212</v>
-      </c>
-      <c r="B160" t="s">
-        <v>219</v>
-      </c>
-      <c r="C160">
-        <v>54.232287730000003</v>
-      </c>
-      <c r="D160">
-        <v>6.6175676000000003E-2</v>
-      </c>
-      <c r="E160">
-        <v>17.96</v>
-      </c>
-      <c r="F160">
-        <v>0.33</v>
-      </c>
-      <c r="G160" t="s">
-        <v>226</v>
-      </c>
-      <c r="I160">
-        <v>306.54965959999998</v>
-      </c>
-      <c r="J160">
-        <v>9.4501191670000004</v>
-      </c>
-      <c r="P160" s="2"/>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>194</v>
-      </c>
-      <c r="B161" t="s">
-        <v>220</v>
-      </c>
-      <c r="C161">
-        <v>38.653766619999999</v>
-      </c>
-      <c r="D161">
-        <v>5.8868078999999997E-2</v>
-      </c>
-      <c r="E161">
-        <v>17.71</v>
-      </c>
-      <c r="F161">
-        <v>0.16</v>
-      </c>
-      <c r="G161" t="s">
-        <v>226</v>
-      </c>
-      <c r="I161">
-        <v>47.106617919999998</v>
-      </c>
-      <c r="J161">
-        <v>26.33094444</v>
-      </c>
-      <c r="P161" s="2"/>
-    </row>
-    <row r="162" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="3">
-        <v>200</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C162" s="3">
-        <v>47.3119704</v>
-      </c>
-      <c r="D162" s="3">
-        <v>4.1858500999999999E-2</v>
-      </c>
-      <c r="E162" s="3">
-        <v>18.38</v>
-      </c>
-      <c r="F162" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I162" s="3">
-        <v>8.7396841670000001</v>
-      </c>
-      <c r="J162" s="3">
-        <v>4.3814677780000002</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="3">
-        <v>229</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C163" s="3">
-        <v>62.618976050000001</v>
-      </c>
-      <c r="D163" s="3">
-        <v>9.5675721000000005E-2</v>
-      </c>
-      <c r="E163" s="3">
-        <v>17.920000000000002</v>
-      </c>
-      <c r="F163" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I163" s="3">
-        <v>353.95535419999999</v>
-      </c>
-      <c r="J163" s="3">
-        <v>0.44551222200000001</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="3">
-        <v>222</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C164" s="3">
-        <v>58.88657268</v>
-      </c>
-      <c r="D164" s="3">
-        <v>6.5538176000000004E-2</v>
-      </c>
-      <c r="E164" s="3">
-        <v>18.260000000000002</v>
-      </c>
-      <c r="F164" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I164" s="3">
-        <v>67.412474579999994</v>
-      </c>
-      <c r="J164" s="3">
-        <v>22.882720280000001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="3">
-        <v>232</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C165" s="3">
-        <v>64.401038139999997</v>
-      </c>
-      <c r="D165" s="3">
-        <v>0.107834839</v>
-      </c>
-      <c r="E165" s="3">
-        <v>17.54</v>
-      </c>
-      <c r="F165" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I165" s="3">
-        <v>188.38685039999999</v>
-      </c>
-      <c r="J165" s="3">
-        <v>-10.14617361</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B166" t="s">
-        <v>228</v>
-      </c>
-      <c r="C166">
-        <f>1000/12.5234</f>
-        <v>79.850519826884067</v>
-      </c>
-      <c r="D166">
-        <f>0.1142/12.5234*C166</f>
-        <v>0.72815124999841585</v>
-      </c>
-      <c r="E166">
-        <v>18.559999999999999</v>
-      </c>
-      <c r="F166" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G166" t="s">
-        <v>229</v>
-      </c>
-      <c r="I166">
-        <v>120.56640384000001</v>
-      </c>
-      <c r="J166">
-        <v>2.3345718999999998</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B167" t="s">
-        <v>230</v>
-      </c>
-      <c r="C167">
-        <f>1000/17.7324</f>
-        <v>56.393945546006186</v>
-      </c>
-      <c r="D167">
-        <f>0.329/17.7324*C167</f>
-        <v>1.0463111640069047</v>
-      </c>
-      <c r="E167">
-        <v>18.79</v>
-      </c>
-      <c r="F167" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G167" t="s">
-        <v>229</v>
-      </c>
-      <c r="I167">
-        <v>334.62546849</v>
-      </c>
-      <c r="J167">
-        <v>-60.259629539999999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B168" t="s">
-        <v>231</v>
-      </c>
-      <c r="C168">
-        <f>1000/11.0209</f>
-        <v>90.736691195818864</v>
-      </c>
-      <c r="D168">
-        <f>0.1661/11.0209*C168</f>
-        <v>1.3675257381543715</v>
-      </c>
-      <c r="E168">
-        <v>19.53</v>
-      </c>
-      <c r="F168" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G168" t="s">
-        <v>229</v>
-      </c>
-      <c r="I168">
-        <v>151.97612548999999</v>
-      </c>
-      <c r="J168">
-        <v>9.9975068700000005</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B169" t="s">
-        <v>232</v>
-      </c>
-      <c r="C169">
-        <f>1000/12.0676</f>
-        <v>82.866518611820069</v>
-      </c>
-      <c r="D169">
-        <f>0.1313/12.0676*C169</f>
-        <v>0.901618705768502</v>
-      </c>
-      <c r="E169">
-        <v>17.97</v>
-      </c>
-      <c r="F169" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G169" t="s">
-        <v>229</v>
-      </c>
-      <c r="I169">
-        <v>103.54749526000001</v>
-      </c>
-      <c r="J169">
-        <v>-12.0386281</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
-        <v>233</v>
-      </c>
-      <c r="C170">
-        <f>1000/17.0234</f>
-        <v>58.742671851686509</v>
-      </c>
-      <c r="D170">
-        <f>0.5614/17.0234*C170</f>
-        <v>1.9372238200087415</v>
-      </c>
-      <c r="E170">
-        <v>18.87</v>
-      </c>
-      <c r="F170" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G170" t="s">
-        <v>229</v>
-      </c>
-      <c r="I170">
-        <v>112.30763598999999</v>
-      </c>
-      <c r="J170">
-        <v>-43.301435390000002</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J167">
+    <sortCondition ref="C2:C167"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
